--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140628.1226843105</v>
+        <v>-141330.2583686847</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2446118.202799316</v>
+        <v>2446118.202799311</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>186.6415693192373</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>176.0517191689127</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>198.6988396730523</v>
       </c>
       <c r="F11" t="n">
-        <v>198.6988396730515</v>
+        <v>119.3167108195004</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>18.50923699120972</v>
       </c>
       <c r="T11" t="n">
-        <v>42.18246213585451</v>
+        <v>42.18246213585454</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.67262509955674</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>149.1209360183647</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>170.6096462656428</v>
       </c>
       <c r="X11" t="n">
-        <v>167.535866706122</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>12.27683298817733</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>25.78463191747669</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>166.5021842555528</v>
       </c>
       <c r="T12" t="n">
-        <v>198.6988396730515</v>
+        <v>20.40912598010594</v>
       </c>
       <c r="U12" t="n">
-        <v>198.6988396730515</v>
+        <v>47.29170902643618</v>
       </c>
       <c r="V12" t="n">
-        <v>54.16926469765502</v>
+        <v>54.16926469765505</v>
       </c>
       <c r="W12" t="n">
-        <v>73.06366070914936</v>
+        <v>73.06366070914939</v>
       </c>
       <c r="X12" t="n">
-        <v>27.14166275170723</v>
+        <v>198.6988396730523</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.05137332553412</v>
+        <v>198.6988396730523</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.200657730167052</v>
+        <v>1.20065773016708</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>41.30999778875469</v>
+        <v>41.30999778875472</v>
       </c>
       <c r="T13" t="n">
-        <v>48.31511175255181</v>
+        <v>48.31511175255184</v>
       </c>
       <c r="U13" t="n">
         <v>107.6749517316488</v>
       </c>
       <c r="V13" t="n">
-        <v>73.50632087205776</v>
+        <v>73.50632087205778</v>
       </c>
       <c r="W13" t="n">
         <v>107.8916758848208</v>
       </c>
       <c r="X13" t="n">
-        <v>47.07833293726691</v>
+        <v>47.07833293726694</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.95333090032454</v>
+        <v>39.95333090032457</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>176.0517191689127</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>187.7627180959228</v>
+        <v>145.7700409872239</v>
       </c>
       <c r="H14" t="n">
         <v>155.5045423845798</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>11.74649515820826</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18.5092369912097</v>
+        <v>18.50923699120969</v>
       </c>
       <c r="T14" t="n">
         <v>42.18246213585451</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>191.0997782266988</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
     </row>
     <row r="15">
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.6988396730515</v>
+        <v>20.40912598010592</v>
       </c>
       <c r="U15" t="n">
-        <v>198.6988396730515</v>
+        <v>47.29170902643615</v>
       </c>
       <c r="V15" t="n">
-        <v>79.95389661513171</v>
+        <v>54.16926469765502</v>
       </c>
       <c r="W15" t="n">
         <v>73.06366070914936</v>
@@ -1752,7 +1752,7 @@
         <v>27.14166275170723</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.05137332553412</v>
+        <v>157.3596576935205</v>
       </c>
     </row>
     <row r="16">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.52790659228486</v>
+        <v>82.52790659228509</v>
       </c>
       <c r="C17" t="n">
-        <v>65.06695669981184</v>
+        <v>65.06695669981207</v>
       </c>
       <c r="D17" t="n">
-        <v>54.47710654948725</v>
+        <v>54.47710654948747</v>
       </c>
       <c r="E17" t="n">
-        <v>81.72443500106607</v>
+        <v>81.7244350010663</v>
       </c>
       <c r="F17" t="n">
-        <v>106.6701106705157</v>
+        <v>106.6701106705169</v>
       </c>
       <c r="G17" t="n">
-        <v>114.57548548757</v>
+        <v>114.5754854875703</v>
       </c>
       <c r="H17" t="n">
-        <v>33.92992976515436</v>
+        <v>33.92992976515455</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>27.54632339893919</v>
+        <v>27.54632339893942</v>
       </c>
       <c r="W17" t="n">
-        <v>49.0350336462173</v>
+        <v>49.03503364621753</v>
       </c>
       <c r="X17" t="n">
-        <v>69.52516560727332</v>
+        <v>69.52516560727355</v>
       </c>
       <c r="Y17" t="n">
-        <v>86.03200358485857</v>
+        <v>86.0320035848581</v>
       </c>
     </row>
     <row r="18">
@@ -1923,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>98.20731131192946</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>82.83975863332242</v>
       </c>
       <c r="S18" t="n">
-        <v>130.6789026255607</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
     </row>
     <row r="19">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>35.23026070930617</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.8943540884139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.52790659228486</v>
+        <v>82.52790659228509</v>
       </c>
       <c r="C20" t="n">
-        <v>65.06695669981184</v>
+        <v>65.06695669981207</v>
       </c>
       <c r="D20" t="n">
-        <v>54.47710654948725</v>
+        <v>54.47710654948747</v>
       </c>
       <c r="E20" t="n">
-        <v>81.72443500106607</v>
+        <v>81.7244350010663</v>
       </c>
       <c r="F20" t="n">
-        <v>106.6701106705157</v>
+        <v>106.670110670516</v>
       </c>
       <c r="G20" t="n">
-        <v>114.57548548757</v>
+        <v>114.5754854875703</v>
       </c>
       <c r="H20" t="n">
-        <v>33.92992976515438</v>
+        <v>33.92992976515455</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27.54632339893919</v>
+        <v>27.54632339893942</v>
       </c>
       <c r="W20" t="n">
-        <v>49.0350336462173</v>
+        <v>49.03503364621753</v>
       </c>
       <c r="X20" t="n">
-        <v>69.52516560727332</v>
+        <v>69.52516560727355</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.03200358485788</v>
+        <v>86.0320035848581</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.57768403226018</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.83975863332242</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>166.5021842555528</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>70.14600540039291</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>198.6988396730515</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
     </row>
     <row r="22">
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>160.1480792967325</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>73.78102108562574</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>198.6988396730515</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>101.8109874335748</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.52790659228498</v>
+        <v>82.52790659228504</v>
       </c>
       <c r="C23" t="n">
-        <v>65.06695669981195</v>
+        <v>65.06695669981201</v>
       </c>
       <c r="D23" t="n">
-        <v>54.47710654948736</v>
+        <v>54.47710654948742</v>
       </c>
       <c r="E23" t="n">
-        <v>81.72443500106618</v>
+        <v>81.72443500106624</v>
       </c>
       <c r="F23" t="n">
-        <v>106.6701106705158</v>
+        <v>106.6701106705159</v>
       </c>
       <c r="G23" t="n">
-        <v>114.5754854875701</v>
+        <v>114.5754854875702</v>
       </c>
       <c r="H23" t="n">
         <v>33.9299297651545</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>27.54632339893931</v>
+        <v>27.54632339893936</v>
       </c>
       <c r="W23" t="n">
-        <v>49.03503364621741</v>
+        <v>49.03503364621747</v>
       </c>
       <c r="X23" t="n">
-        <v>69.52516560727344</v>
+        <v>69.52516560727349</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.03200358485799</v>
+        <v>86.03200358485805</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0645880011306</v>
@@ -2445,19 +2445,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>175.0294067884722</v>
+        <v>70.1150060060783</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>101.8109874335748</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>198.6988396730515</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>101.8109874335742</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>265.7793303359093</v>
       </c>
       <c r="H26" t="n">
-        <v>185.1337746134936</v>
+        <v>185.1337746134935</v>
       </c>
       <c r="I26" t="n">
         <v>41.375727387122</v>
@@ -2643,13 +2643,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>166.5021842555528</v>
+        <v>17.50009403269626</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0404484318762</v>
+        <v>157.4771915649422</v>
       </c>
       <c r="U27" t="n">
         <v>225.9230314782064</v>
       </c>
       <c r="V27" t="n">
-        <v>83.79849692656876</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>56.77089498062097</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>199.6470755536622</v>
+        <v>56.68060555444785</v>
       </c>
     </row>
     <row r="28">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7317514406241</v>
+        <v>233.731751440624</v>
       </c>
       <c r="C29" t="n">
         <v>216.270801548151</v>
@@ -2798,7 +2798,7 @@
         <v>205.6809513978264</v>
       </c>
       <c r="E29" t="n">
-        <v>232.9282798494053</v>
+        <v>232.9282798494052</v>
       </c>
       <c r="F29" t="n">
         <v>257.8739555188549</v>
@@ -2807,10 +2807,10 @@
         <v>265.7793303359093</v>
       </c>
       <c r="H29" t="n">
-        <v>185.1337746134936</v>
+        <v>185.1337746134935</v>
       </c>
       <c r="I29" t="n">
-        <v>41.375727387122</v>
+        <v>41.37572738712197</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>48.13846922012343</v>
+        <v>48.1384692201234</v>
       </c>
       <c r="T29" t="n">
-        <v>71.81169436476824</v>
+        <v>71.81169436476821</v>
       </c>
       <c r="U29" t="n">
         <v>102.3018573284704</v>
@@ -2858,7 +2858,7 @@
         <v>220.7290104556125</v>
       </c>
       <c r="Y29" t="n">
-        <v>237.2358484331971</v>
+        <v>237.235848433197</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>80.43212829469876</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I30" t="n">
-        <v>26.15609938081778</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.83975863332242</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>17.50009403269627</v>
+        <v>17.50009403269624</v>
       </c>
       <c r="T30" t="n">
-        <v>50.03835820901965</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9230314782064</v>
+        <v>76.92094125534986</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>102.6928929380631</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>56.77089498062097</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>56.68060555444782</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.82988995908079</v>
+        <v>30.82988995908076</v>
       </c>
       <c r="C31" t="n">
-        <v>18.24473087577132</v>
+        <v>18.2447308757713</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.75504429595217</v>
+        <v>18.75504429595214</v>
       </c>
       <c r="H31" t="n">
-        <v>11.14598907387598</v>
+        <v>11.14598907387595</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.77678681877388</v>
+        <v>17.77678681877385</v>
       </c>
       <c r="S31" t="n">
-        <v>70.93923001766842</v>
+        <v>70.93923001766839</v>
       </c>
       <c r="T31" t="n">
-        <v>77.94434398146555</v>
+        <v>77.94434398146552</v>
       </c>
       <c r="U31" t="n">
-        <v>137.3041839605626</v>
+        <v>137.3041839605625</v>
       </c>
       <c r="V31" t="n">
         <v>103.1355531009715</v>
@@ -3013,10 +3013,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X31" t="n">
-        <v>76.70756516618064</v>
+        <v>76.70756516618061</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.58256312923828</v>
+        <v>69.58256312923825</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.731751440624</v>
+        <v>233.7317514406241</v>
       </c>
       <c r="C32" t="n">
-        <v>216.270801548151</v>
+        <v>216.2708015481511</v>
       </c>
       <c r="D32" t="n">
-        <v>205.6809513978264</v>
+        <v>205.6809513978265</v>
       </c>
       <c r="E32" t="n">
-        <v>232.9282798494052</v>
+        <v>232.9282798494053</v>
       </c>
       <c r="F32" t="n">
-        <v>257.8739555188549</v>
+        <v>257.873955518855</v>
       </c>
       <c r="G32" t="n">
-        <v>265.7793303359092</v>
+        <v>265.7793303359093</v>
       </c>
       <c r="H32" t="n">
         <v>185.1337746134936</v>
       </c>
       <c r="I32" t="n">
-        <v>41.37572738712197</v>
+        <v>41.37572738712205</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.1384692201234</v>
+        <v>48.13846922012348</v>
       </c>
       <c r="T32" t="n">
-        <v>71.81169436476821</v>
+        <v>71.8116943647683</v>
       </c>
       <c r="U32" t="n">
-        <v>102.3018573284704</v>
+        <v>102.3018573284705</v>
       </c>
       <c r="V32" t="n">
-        <v>178.7501682472784</v>
+        <v>178.7501682472785</v>
       </c>
       <c r="W32" t="n">
-        <v>200.2388784945565</v>
+        <v>200.2388784945566</v>
       </c>
       <c r="X32" t="n">
-        <v>220.7290104556125</v>
+        <v>220.7290104556126</v>
       </c>
       <c r="Y32" t="n">
-        <v>237.235848433197</v>
+        <v>237.2358484331971</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>17.53109342701089</v>
       </c>
       <c r="C33" t="n">
-        <v>23.7064087654592</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5415757500918</v>
+        <v>27.64568261998282</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>166.5021842555528</v>
       </c>
       <c r="T33" t="n">
-        <v>193.0048282082342</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U33" t="n">
         <v>225.9230314782064</v>
@@ -3171,10 +3171,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>56.77089498062102</v>
       </c>
       <c r="Y33" t="n">
-        <v>56.68060555444782</v>
+        <v>56.68060555444791</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.82988995908076</v>
+        <v>30.82988995908084</v>
       </c>
       <c r="C34" t="n">
-        <v>18.2447308757713</v>
+        <v>18.24473087577138</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.75504429595214</v>
+        <v>18.75504429595222</v>
       </c>
       <c r="H34" t="n">
-        <v>11.14598907387595</v>
+        <v>11.14598907387604</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.77678681877385</v>
+        <v>17.77678681877394</v>
       </c>
       <c r="S34" t="n">
-        <v>70.93923001766839</v>
+        <v>70.93923001766848</v>
       </c>
       <c r="T34" t="n">
-        <v>77.94434398146552</v>
+        <v>77.94434398146561</v>
       </c>
       <c r="U34" t="n">
-        <v>137.3041839605625</v>
+        <v>137.3041839605626</v>
       </c>
       <c r="V34" t="n">
         <v>103.1355531009715</v>
@@ -3250,10 +3250,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X34" t="n">
-        <v>76.70756516618061</v>
+        <v>76.7075651661807</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.58256312923825</v>
+        <v>69.58256312923834</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>181.3012698717062</v>
+        <v>181.301269871706</v>
       </c>
       <c r="C35" t="n">
-        <v>163.8403199792332</v>
+        <v>163.840319979233</v>
       </c>
       <c r="D35" t="n">
-        <v>153.2504698289086</v>
+        <v>153.2504698289084</v>
       </c>
       <c r="E35" t="n">
-        <v>180.4977982804874</v>
+        <v>180.4977982804872</v>
       </c>
       <c r="F35" t="n">
-        <v>205.4434739499371</v>
+        <v>205.4434739499369</v>
       </c>
       <c r="G35" t="n">
-        <v>213.3488487669914</v>
+        <v>213.3488487669912</v>
       </c>
       <c r="H35" t="n">
-        <v>132.7032930445757</v>
+        <v>132.7032930445755</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>19.38121279585039</v>
+        <v>19.38121279585021</v>
       </c>
       <c r="U35" t="n">
-        <v>49.87137575955258</v>
+        <v>49.87137575955241</v>
       </c>
       <c r="V35" t="n">
-        <v>126.3196866783605</v>
+        <v>126.3196866783604</v>
       </c>
       <c r="W35" t="n">
-        <v>147.8083969256386</v>
+        <v>147.8083969256385</v>
       </c>
       <c r="X35" t="n">
-        <v>168.2985288866947</v>
+        <v>168.2985288866945</v>
       </c>
       <c r="Y35" t="n">
-        <v>184.8053668642792</v>
+        <v>184.8053668642791</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3354,7 +3354,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.0645880011306</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.83975863332242</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>104.4531612883497</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>192.4855661254388</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.50874844875057</v>
+        <v>18.5087484487504</v>
       </c>
       <c r="T37" t="n">
-        <v>25.51386241254769</v>
+        <v>25.51386241254752</v>
       </c>
       <c r="U37" t="n">
-        <v>84.8737023916447</v>
+        <v>84.87370239164453</v>
       </c>
       <c r="V37" t="n">
-        <v>50.70507153205364</v>
+        <v>50.70507153205347</v>
       </c>
       <c r="W37" t="n">
-        <v>85.09042654481664</v>
+        <v>85.09042654481647</v>
       </c>
       <c r="X37" t="n">
-        <v>24.27708359726279</v>
+        <v>24.27708359726262</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.15208156032043</v>
+        <v>17.15208156032025</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>19.38121279585027</v>
       </c>
       <c r="U38" t="n">
-        <v>49.87137575955247</v>
+        <v>49.87137575955248</v>
       </c>
       <c r="V38" t="n">
         <v>126.3196866783604</v>
@@ -3594,7 +3594,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>27.6925631170167</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H39" t="n">
         <v>109.5415757500918</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U39" t="n">
         <v>225.9230314782064</v>
@@ -3642,10 +3642,10 @@
         <v>31.36801535765079</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>144.7150816367044</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>4.340413411702997</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3755,7 +3755,7 @@
         <v>213.3488487669912</v>
       </c>
       <c r="H41" t="n">
-        <v>132.7032930445756</v>
+        <v>132.7032930445755</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>19.38121279585022</v>
+        <v>19.38121279585021</v>
       </c>
       <c r="U41" t="n">
-        <v>49.87137575955242</v>
+        <v>49.87137575955241</v>
       </c>
       <c r="V41" t="n">
         <v>126.3196866783604</v>
@@ -3825,16 +3825,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>79.79315073593983</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.83975863332242</v>
       </c>
       <c r="S42" t="n">
         <v>166.5021842555528</v>
@@ -3873,7 +3873,7 @@
         <v>199.0404484318762</v>
       </c>
       <c r="U42" t="n">
-        <v>155.8878666146722</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,10 +3882,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>61.15791639970212</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>4.250123985529825</v>
       </c>
     </row>
     <row r="43">
@@ -4056,7 +4056,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>102.6423347304669</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.5415757500918</v>
@@ -4104,22 +4104,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>199.0404484318762</v>
       </c>
       <c r="U45" t="n">
-        <v>110.0860261538396</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>50.26241136914513</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>4.340413411702997</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>582.9586628922295</v>
+        <v>337.1237359542004</v>
       </c>
       <c r="C11" t="n">
-        <v>394.4318251960302</v>
+        <v>337.1237359542004</v>
       </c>
       <c r="D11" t="n">
-        <v>216.6018058334921</v>
+        <v>337.1237359542004</v>
       </c>
       <c r="E11" t="n">
-        <v>216.6018058334921</v>
+        <v>136.4178372945516</v>
       </c>
       <c r="F11" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="G11" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="H11" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="I11" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="J11" t="n">
-        <v>47.86977448817003</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="K11" t="n">
-        <v>216.535117469966</v>
+        <v>184.5612501556401</v>
       </c>
       <c r="L11" t="n">
-        <v>413.2469687462869</v>
+        <v>381.2731014319619</v>
       </c>
       <c r="M11" t="n">
-        <v>609.9588200226079</v>
+        <v>401.3716561395656</v>
       </c>
       <c r="N11" t="n">
-        <v>794.795358692206</v>
+        <v>598.0835074158874</v>
       </c>
       <c r="O11" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922092</v>
       </c>
       <c r="P11" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922092</v>
       </c>
       <c r="Q11" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922092</v>
       </c>
       <c r="R11" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922092</v>
       </c>
       <c r="S11" t="n">
-        <v>794.795358692206</v>
+        <v>776.0991597111891</v>
       </c>
       <c r="T11" t="n">
-        <v>752.1868110802316</v>
+        <v>733.4906120992149</v>
       </c>
       <c r="U11" t="n">
-        <v>752.1868110802316</v>
+        <v>660.0839200794605</v>
       </c>
       <c r="V11" t="n">
-        <v>752.1868110802316</v>
+        <v>509.4567119801022</v>
       </c>
       <c r="W11" t="n">
-        <v>752.1868110802316</v>
+        <v>337.1237359542004</v>
       </c>
       <c r="X11" t="n">
-        <v>582.9586628922295</v>
+        <v>337.1237359542004</v>
       </c>
       <c r="Y11" t="n">
-        <v>582.9586628922295</v>
+        <v>337.1237359542004</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.94098991877007</v>
+        <v>28.29674857604351</v>
       </c>
       <c r="C12" t="n">
-        <v>41.94098991877007</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="D12" t="n">
-        <v>41.94098991877007</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="E12" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="F12" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="G12" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="H12" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="I12" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="J12" t="n">
-        <v>41.24594382033389</v>
+        <v>41.24594382033396</v>
       </c>
       <c r="K12" t="n">
-        <v>41.24594382033389</v>
+        <v>211.1940372584258</v>
       </c>
       <c r="L12" t="n">
-        <v>41.24594382033389</v>
+        <v>407.9058885347476</v>
       </c>
       <c r="M12" t="n">
-        <v>100.0162341137477</v>
+        <v>604.6177398110693</v>
       </c>
       <c r="N12" t="n">
-        <v>296.7280853900687</v>
+        <v>690.1517879427139</v>
       </c>
       <c r="O12" t="n">
-        <v>493.4399366663897</v>
+        <v>690.1517879427139</v>
       </c>
       <c r="P12" t="n">
-        <v>690.1517879427107</v>
+        <v>690.1517879427139</v>
       </c>
       <c r="Q12" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922092</v>
       </c>
       <c r="R12" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922092</v>
       </c>
       <c r="S12" t="n">
-        <v>626.6113341916476</v>
+        <v>626.6113341916508</v>
       </c>
       <c r="T12" t="n">
-        <v>425.9054355319996</v>
+        <v>605.996055423867</v>
       </c>
       <c r="U12" t="n">
-        <v>225.1995368723516</v>
+        <v>558.2266523668608</v>
       </c>
       <c r="V12" t="n">
-        <v>170.4831078848213</v>
+        <v>503.5102233793304</v>
       </c>
       <c r="W12" t="n">
-        <v>96.68143040083204</v>
+        <v>429.7085458953411</v>
       </c>
       <c r="X12" t="n">
-        <v>69.26560943951161</v>
+        <v>229.0026472356923</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.94098991877007</v>
+        <v>28.29674857604351</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384418</v>
       </c>
       <c r="C13" t="n">
-        <v>15.89590717384412</v>
+        <v>27.16656351345515</v>
       </c>
       <c r="D13" t="n">
-        <v>15.89590717384412</v>
+        <v>56.88225445267743</v>
       </c>
       <c r="E13" t="n">
-        <v>15.89590717384412</v>
+        <v>56.88225445267743</v>
       </c>
       <c r="F13" t="n">
-        <v>15.89590717384412</v>
+        <v>56.88225445267743</v>
       </c>
       <c r="G13" t="n">
-        <v>15.89590717384412</v>
+        <v>56.88225445267743</v>
       </c>
       <c r="H13" t="n">
-        <v>15.89590717384412</v>
+        <v>56.88225445267743</v>
       </c>
       <c r="I13" t="n">
-        <v>15.89590717384412</v>
+        <v>86.79332206800646</v>
       </c>
       <c r="J13" t="n">
-        <v>15.89590717384412</v>
+        <v>183.9974753465374</v>
       </c>
       <c r="K13" t="n">
-        <v>77.91742212523823</v>
+        <v>188.8475118954657</v>
       </c>
       <c r="L13" t="n">
-        <v>139.650233701688</v>
+        <v>250.5803234719156</v>
       </c>
       <c r="M13" t="n">
-        <v>215.1279510246873</v>
+        <v>326.0580407949149</v>
       </c>
       <c r="N13" t="n">
-        <v>294.245593352592</v>
+        <v>405.1756831228195</v>
       </c>
       <c r="O13" t="n">
-        <v>351.3072460894064</v>
+        <v>462.237335859634</v>
       </c>
       <c r="P13" t="n">
-        <v>376.6126654819931</v>
+        <v>487.5427552522206</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.5427552522202</v>
+        <v>487.5427552522206</v>
       </c>
       <c r="R13" t="n">
-        <v>487.5427552522202</v>
+        <v>487.5427552522206</v>
       </c>
       <c r="S13" t="n">
-        <v>445.8154847585286</v>
+        <v>445.815484758529</v>
       </c>
       <c r="T13" t="n">
-        <v>397.0123415741328</v>
+        <v>397.0123415741331</v>
       </c>
       <c r="U13" t="n">
-        <v>288.2497640674169</v>
+        <v>288.2497640674171</v>
       </c>
       <c r="V13" t="n">
-        <v>214.0009551057424</v>
+        <v>214.0009551057425</v>
       </c>
       <c r="W13" t="n">
-        <v>105.0194643129941</v>
+        <v>105.0194643129943</v>
       </c>
       <c r="X13" t="n">
-        <v>57.46559265918917</v>
+        <v>57.46559265918929</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.10869275987145</v>
+        <v>17.10869275987154</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>540.4605330823446</v>
+        <v>332.078814779917</v>
       </c>
       <c r="C14" t="n">
-        <v>540.4605330823446</v>
+        <v>332.078814779917</v>
       </c>
       <c r="D14" t="n">
-        <v>362.6305137198064</v>
+        <v>332.078814779917</v>
       </c>
       <c r="E14" t="n">
-        <v>362.6305137198064</v>
+        <v>332.078814779917</v>
       </c>
       <c r="F14" t="n">
-        <v>362.6305137198064</v>
+        <v>332.078814779917</v>
       </c>
       <c r="G14" t="n">
-        <v>172.9712025118035</v>
+        <v>184.8363491362564</v>
       </c>
       <c r="H14" t="n">
-        <v>15.89590717384412</v>
+        <v>27.76105379829698</v>
       </c>
       <c r="I14" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="J14" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="K14" t="n">
-        <v>15.89590717384412</v>
+        <v>184.5612501556401</v>
       </c>
       <c r="L14" t="n">
-        <v>15.89590717384412</v>
+        <v>184.5612501556401</v>
       </c>
       <c r="M14" t="n">
-        <v>191.6526205901289</v>
+        <v>191.65262059013</v>
       </c>
       <c r="N14" t="n">
-        <v>388.3644718664499</v>
+        <v>388.3644718664516</v>
       </c>
       <c r="O14" t="n">
-        <v>585.0763231427709</v>
+        <v>585.0763231427732</v>
       </c>
       <c r="P14" t="n">
-        <v>748.9527481072015</v>
+        <v>748.9527481072038</v>
       </c>
       <c r="Q14" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="R14" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="S14" t="n">
-        <v>776.0991597111861</v>
+        <v>776.0991597111883</v>
       </c>
       <c r="T14" t="n">
-        <v>733.4906120992121</v>
+        <v>733.4906120992141</v>
       </c>
       <c r="U14" t="n">
-        <v>733.4906120992121</v>
+        <v>733.4906120992141</v>
       </c>
       <c r="V14" t="n">
-        <v>733.4906120992121</v>
+        <v>733.4906120992141</v>
       </c>
       <c r="W14" t="n">
-        <v>733.4906120992121</v>
+        <v>733.4906120992141</v>
       </c>
       <c r="X14" t="n">
-        <v>540.4605330823446</v>
+        <v>733.4906120992141</v>
       </c>
       <c r="Y14" t="n">
-        <v>540.4605330823446</v>
+        <v>532.7847134395655</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.89590717384412</v>
+        <v>411.5276002492041</v>
       </c>
       <c r="C15" t="n">
-        <v>15.89590717384412</v>
+        <v>411.5276002492041</v>
       </c>
       <c r="D15" t="n">
-        <v>15.89590717384412</v>
+        <v>411.5276002492041</v>
       </c>
       <c r="E15" t="n">
-        <v>15.89590717384412</v>
+        <v>411.5276002492041</v>
       </c>
       <c r="F15" t="n">
-        <v>15.89590717384412</v>
+        <v>264.9930422760891</v>
       </c>
       <c r="G15" t="n">
-        <v>15.89590717384412</v>
+        <v>126.5439634870682</v>
       </c>
       <c r="H15" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="I15" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="J15" t="n">
-        <v>15.89590717384412</v>
+        <v>41.24594382033395</v>
       </c>
       <c r="K15" t="n">
-        <v>185.844000611936</v>
+        <v>211.1940372584258</v>
       </c>
       <c r="L15" t="n">
-        <v>185.844000611936</v>
+        <v>407.9058885347474</v>
       </c>
       <c r="M15" t="n">
-        <v>185.844000611936</v>
+        <v>598.0835074158867</v>
       </c>
       <c r="N15" t="n">
-        <v>296.7280853900687</v>
+        <v>598.0835074158867</v>
       </c>
       <c r="O15" t="n">
-        <v>493.4399366663897</v>
+        <v>598.0835074158867</v>
       </c>
       <c r="P15" t="n">
-        <v>690.1517879427107</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="Q15" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="R15" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="S15" t="n">
-        <v>626.6113341916476</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="T15" t="n">
-        <v>425.9054355319996</v>
+        <v>774.1800799244246</v>
       </c>
       <c r="U15" t="n">
-        <v>225.1995368723516</v>
+        <v>726.4106768674184</v>
       </c>
       <c r="V15" t="n">
-        <v>144.4380251398953</v>
+        <v>671.6942478798881</v>
       </c>
       <c r="W15" t="n">
-        <v>70.63634765590609</v>
+        <v>597.8925703958988</v>
       </c>
       <c r="X15" t="n">
-        <v>43.22052669458565</v>
+        <v>570.4767494345783</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.89590717384412</v>
+        <v>411.5276002492041</v>
       </c>
     </row>
     <row r="16">
@@ -5410,61 +5410,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="C16" t="n">
-        <v>15.89590717384412</v>
+        <v>27.16656351345515</v>
       </c>
       <c r="D16" t="n">
-        <v>45.61159811306643</v>
+        <v>27.16656351345515</v>
       </c>
       <c r="E16" t="n">
-        <v>77.4869843202155</v>
+        <v>59.04194972060422</v>
       </c>
       <c r="F16" t="n">
-        <v>110.3651560047661</v>
+        <v>91.92012140515482</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3651560047661</v>
+        <v>91.92012140515482</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3651560047661</v>
+        <v>110.2185321286422</v>
       </c>
       <c r="I16" t="n">
-        <v>110.3651560047661</v>
+        <v>140.1295997439713</v>
       </c>
       <c r="J16" t="n">
-        <v>110.3651560047661</v>
+        <v>183.9974753465372</v>
       </c>
       <c r="K16" t="n">
-        <v>115.2151925536944</v>
+        <v>188.8475118954655</v>
       </c>
       <c r="L16" t="n">
-        <v>176.9480041301442</v>
+        <v>250.5803234719153</v>
       </c>
       <c r="M16" t="n">
-        <v>252.4257214531435</v>
+        <v>326.0580407949146</v>
       </c>
       <c r="N16" t="n">
-        <v>331.5433637810481</v>
+        <v>405.1756831228192</v>
       </c>
       <c r="O16" t="n">
-        <v>388.6050165178626</v>
+        <v>462.2373358596337</v>
       </c>
       <c r="P16" t="n">
-        <v>413.9104359104492</v>
+        <v>487.5427552522203</v>
       </c>
       <c r="Q16" t="n">
-        <v>475.8088342961818</v>
+        <v>487.5427552522203</v>
       </c>
       <c r="R16" t="n">
-        <v>487.5427552522202</v>
+        <v>487.5427552522203</v>
       </c>
       <c r="S16" t="n">
-        <v>445.8154847585286</v>
+        <v>445.8154847585287</v>
       </c>
       <c r="T16" t="n">
-        <v>397.0123415741328</v>
+        <v>397.012341574133</v>
       </c>
       <c r="U16" t="n">
         <v>288.2497640674169</v>
@@ -5473,13 +5473,13 @@
         <v>214.0009551057424</v>
       </c>
       <c r="W16" t="n">
-        <v>105.0194643129941</v>
+        <v>105.0194643129942</v>
       </c>
       <c r="X16" t="n">
-        <v>57.46559265918917</v>
+        <v>57.46559265918921</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.10869275987145</v>
+        <v>17.10869275987149</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>476.9504770461722</v>
+        <v>476.9504770461738</v>
       </c>
       <c r="C17" t="n">
-        <v>411.2262783594935</v>
+        <v>411.2262783594949</v>
       </c>
       <c r="D17" t="n">
-        <v>356.198898006476</v>
+        <v>356.1988980064775</v>
       </c>
       <c r="E17" t="n">
-        <v>273.6489636619649</v>
+        <v>273.6489636619665</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9013771260907</v>
+        <v>165.9013771260914</v>
       </c>
       <c r="G17" t="n">
-        <v>50.16856350228286</v>
+        <v>50.16856350228311</v>
       </c>
       <c r="H17" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="I17" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="J17" t="n">
-        <v>47.86977448817003</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="K17" t="n">
-        <v>216.535117469966</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="L17" t="n">
-        <v>216.535117469966</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="M17" t="n">
-        <v>216.535117469966</v>
+        <v>212.6077584501657</v>
       </c>
       <c r="N17" t="n">
-        <v>388.3644718664499</v>
+        <v>409.3196097264873</v>
       </c>
       <c r="O17" t="n">
-        <v>585.0763231427709</v>
+        <v>606.0314610028089</v>
       </c>
       <c r="P17" t="n">
-        <v>748.9527481072015</v>
+        <v>769.9078859672395</v>
       </c>
       <c r="Q17" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="R17" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="S17" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="T17" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="U17" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="V17" t="n">
-        <v>766.9707896023684</v>
+        <v>766.9707896023699</v>
       </c>
       <c r="W17" t="n">
-        <v>717.4404525859873</v>
+        <v>717.4404525859886</v>
       </c>
       <c r="X17" t="n">
-        <v>647.2130125786405</v>
+        <v>647.2130125786416</v>
       </c>
       <c r="Y17" t="n">
-        <v>560.3119988565609</v>
+        <v>560.3119988565627</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>579.1199432791929</v>
+        <v>342.2289116599585</v>
       </c>
       <c r="C18" t="n">
-        <v>404.6669139980659</v>
+        <v>342.2289116599585</v>
       </c>
       <c r="D18" t="n">
-        <v>255.7325043368146</v>
+        <v>342.2289116599585</v>
       </c>
       <c r="E18" t="n">
-        <v>96.49504933135911</v>
+        <v>342.2289116599585</v>
       </c>
       <c r="F18" t="n">
-        <v>96.49504933135911</v>
+        <v>195.6943536868435</v>
       </c>
       <c r="G18" t="n">
-        <v>96.49504933135911</v>
+        <v>96.49504933135916</v>
       </c>
       <c r="H18" t="n">
-        <v>96.49504933135911</v>
+        <v>96.49504933135916</v>
       </c>
       <c r="I18" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="J18" t="n">
-        <v>15.89590717384412</v>
+        <v>41.24594382033395</v>
       </c>
       <c r="K18" t="n">
-        <v>185.844000611936</v>
+        <v>204.6598048632436</v>
       </c>
       <c r="L18" t="n">
-        <v>185.844000611936</v>
+        <v>401.3716561395652</v>
       </c>
       <c r="M18" t="n">
-        <v>185.844000611936</v>
+        <v>598.0835074158867</v>
       </c>
       <c r="N18" t="n">
-        <v>296.7280853900687</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="O18" t="n">
-        <v>493.4399366663897</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="P18" t="n">
-        <v>690.1517879427107</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="Q18" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="R18" t="n">
-        <v>711.1188348201632</v>
+        <v>711.1188348201655</v>
       </c>
       <c r="S18" t="n">
-        <v>579.1199432791929</v>
+        <v>542.9348103196071</v>
       </c>
       <c r="T18" t="n">
-        <v>579.1199432791929</v>
+        <v>542.9348103196071</v>
       </c>
       <c r="U18" t="n">
-        <v>579.1199432791929</v>
+        <v>542.9348103196071</v>
       </c>
       <c r="V18" t="n">
-        <v>579.1199432791929</v>
+        <v>542.9348103196071</v>
       </c>
       <c r="W18" t="n">
-        <v>579.1199432791929</v>
+        <v>542.9348103196071</v>
       </c>
       <c r="X18" t="n">
-        <v>579.1199432791929</v>
+        <v>542.9348103196071</v>
       </c>
       <c r="Y18" t="n">
-        <v>579.1199432791929</v>
+        <v>342.2289116599585</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>166.0125465861798</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="C19" t="n">
-        <v>166.0125465861798</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="D19" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="E19" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="F19" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="G19" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="H19" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="I19" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="J19" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="K19" t="n">
-        <v>20.7459437227724</v>
+        <v>20.74594372277246</v>
       </c>
       <c r="L19" t="n">
-        <v>82.4787552992222</v>
+        <v>82.47875529922226</v>
       </c>
       <c r="M19" t="n">
-        <v>157.9564726222215</v>
+        <v>157.9564726222216</v>
       </c>
       <c r="N19" t="n">
         <v>237.0741149501262</v>
       </c>
       <c r="O19" t="n">
-        <v>294.1357676869406</v>
+        <v>294.1357676869407</v>
       </c>
       <c r="P19" t="n">
         <v>319.4411870795273</v>
       </c>
       <c r="Q19" t="n">
-        <v>319.4411870795273</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="R19" t="n">
-        <v>319.4411870795273</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="S19" t="n">
-        <v>319.4411870795273</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="T19" t="n">
-        <v>319.4411870795273</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="U19" t="n">
-        <v>319.4411870795273</v>
+        <v>216.6018058334927</v>
       </c>
       <c r="V19" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="W19" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="X19" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="Y19" t="n">
-        <v>166.0125465861798</v>
+        <v>15.89590717384417</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>476.9504770461731</v>
+        <v>476.9504770461745</v>
       </c>
       <c r="C20" t="n">
-        <v>411.2262783594945</v>
+        <v>411.2262783594956</v>
       </c>
       <c r="D20" t="n">
-        <v>356.1988980064773</v>
+        <v>356.1988980064779</v>
       </c>
       <c r="E20" t="n">
-        <v>273.6489636619661</v>
+        <v>273.6489636619664</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9013771260916</v>
+        <v>165.9013771260917</v>
       </c>
       <c r="G20" t="n">
-        <v>50.16856350228289</v>
+        <v>50.16856350228311</v>
       </c>
       <c r="H20" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="I20" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="J20" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="K20" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="L20" t="n">
-        <v>212.6077584501651</v>
+        <v>40.783379898813</v>
       </c>
       <c r="M20" t="n">
-        <v>212.6077584501651</v>
+        <v>237.4952311751346</v>
       </c>
       <c r="N20" t="n">
-        <v>388.3644718664499</v>
+        <v>434.2070824514561</v>
       </c>
       <c r="O20" t="n">
-        <v>585.0763231427709</v>
+        <v>630.9189337277777</v>
       </c>
       <c r="P20" t="n">
-        <v>748.9527481072015</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="Q20" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="R20" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="S20" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="T20" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="U20" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="V20" t="n">
-        <v>766.9707896023683</v>
+        <v>766.9707896023704</v>
       </c>
       <c r="W20" t="n">
-        <v>717.4404525859873</v>
+        <v>717.4404525859891</v>
       </c>
       <c r="X20" t="n">
-        <v>647.2130125786405</v>
+        <v>647.2130125786421</v>
       </c>
       <c r="Y20" t="n">
-        <v>560.3119988565618</v>
+        <v>560.3119988565632</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.49504933135911</v>
+        <v>154.344985962865</v>
       </c>
       <c r="C21" t="n">
-        <v>96.49504933135911</v>
+        <v>154.344985962865</v>
       </c>
       <c r="D21" t="n">
-        <v>96.49504933135911</v>
+        <v>154.344985962865</v>
       </c>
       <c r="E21" t="n">
-        <v>96.49504933135911</v>
+        <v>154.344985962865</v>
       </c>
       <c r="F21" t="n">
-        <v>96.49504933135911</v>
+        <v>154.344985962865</v>
       </c>
       <c r="G21" t="n">
-        <v>96.49504933135911</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="H21" t="n">
-        <v>96.49504933135911</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="I21" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="J21" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="K21" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="L21" t="n">
-        <v>15.89590717384412</v>
+        <v>212.6077584501657</v>
       </c>
       <c r="M21" t="n">
-        <v>100.0162341137477</v>
+        <v>401.3716561395652</v>
       </c>
       <c r="N21" t="n">
-        <v>296.7280853900687</v>
+        <v>401.3716561395652</v>
       </c>
       <c r="O21" t="n">
-        <v>493.4399366663897</v>
+        <v>598.0835074158867</v>
       </c>
       <c r="P21" t="n">
-        <v>690.1517879427107</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="Q21" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="R21" t="n">
-        <v>711.1188348201632</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="S21" t="n">
-        <v>542.9348103196048</v>
+        <v>626.6113341916499</v>
       </c>
       <c r="T21" t="n">
-        <v>542.9348103196048</v>
+        <v>555.7567832821621</v>
       </c>
       <c r="U21" t="n">
-        <v>542.9348103196048</v>
+        <v>555.7567832821621</v>
       </c>
       <c r="V21" t="n">
-        <v>342.2289116599568</v>
+        <v>555.7567832821621</v>
       </c>
       <c r="W21" t="n">
-        <v>141.5230130003088</v>
+        <v>355.0508846225135</v>
       </c>
       <c r="X21" t="n">
-        <v>141.5230130003088</v>
+        <v>355.0508846225135</v>
       </c>
       <c r="Y21" t="n">
-        <v>141.5230130003088</v>
+        <v>154.344985962865</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.89590717384412</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="C22" t="n">
-        <v>15.89590717384412</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="D22" t="n">
-        <v>15.89590717384412</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="E22" t="n">
-        <v>15.89590717384412</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="F22" t="n">
-        <v>15.89590717384412</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="G22" t="n">
-        <v>15.89590717384412</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="H22" t="n">
-        <v>15.89590717384412</v>
+        <v>90.42219109871866</v>
       </c>
       <c r="I22" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="J22" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="K22" t="n">
-        <v>20.7459437227724</v>
+        <v>20.74594372277246</v>
       </c>
       <c r="L22" t="n">
-        <v>82.4787552992222</v>
+        <v>82.47875529922226</v>
       </c>
       <c r="M22" t="n">
-        <v>157.9564726222215</v>
+        <v>157.9564726222216</v>
       </c>
       <c r="N22" t="n">
         <v>237.0741149501262</v>
       </c>
       <c r="O22" t="n">
-        <v>294.1357676869406</v>
+        <v>294.1357676869407</v>
       </c>
       <c r="P22" t="n">
         <v>319.4411870795273</v>
       </c>
       <c r="Q22" t="n">
-        <v>319.4411870795273</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="R22" t="n">
-        <v>319.4411870795273</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="S22" t="n">
-        <v>319.4411870795273</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="T22" t="n">
-        <v>319.4411870795273</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="U22" t="n">
-        <v>118.7352884198793</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="V22" t="n">
-        <v>15.89590717384412</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="W22" t="n">
-        <v>15.89590717384412</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="X22" t="n">
-        <v>15.89590717384412</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.89590717384412</v>
+        <v>252.1879277620848</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>476.9504770461725</v>
+        <v>476.9504770461745</v>
       </c>
       <c r="C23" t="n">
-        <v>411.2262783594938</v>
+        <v>411.2262783594956</v>
       </c>
       <c r="D23" t="n">
-        <v>356.1988980064764</v>
+        <v>356.198898006478</v>
       </c>
       <c r="E23" t="n">
-        <v>273.6489636619651</v>
+        <v>273.6489636619666</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9013771260905</v>
+        <v>165.9013771260919</v>
       </c>
       <c r="G23" t="n">
-        <v>50.16856350228301</v>
+        <v>50.16856350228306</v>
       </c>
       <c r="H23" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="I23" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="J23" t="n">
-        <v>47.86977448817003</v>
+        <v>47.86977448817009</v>
       </c>
       <c r="K23" t="n">
         <v>216.535117469966</v>
       </c>
       <c r="L23" t="n">
-        <v>413.2469687462869</v>
+        <v>413.2469687462876</v>
       </c>
       <c r="M23" t="n">
-        <v>552.2408968308805</v>
+        <v>413.2469687462876</v>
       </c>
       <c r="N23" t="n">
-        <v>748.9527481072015</v>
+        <v>413.2469687462876</v>
       </c>
       <c r="O23" t="n">
-        <v>748.9527481072015</v>
+        <v>585.0763231427732</v>
       </c>
       <c r="P23" t="n">
-        <v>748.9527481072015</v>
+        <v>748.9527481072038</v>
       </c>
       <c r="Q23" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="R23" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="S23" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="T23" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="U23" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="V23" t="n">
-        <v>766.9707896023681</v>
+        <v>766.9707896023706</v>
       </c>
       <c r="W23" t="n">
-        <v>717.440452585987</v>
+        <v>717.4404525859893</v>
       </c>
       <c r="X23" t="n">
-        <v>647.2130125786401</v>
+        <v>647.2130125786423</v>
       </c>
       <c r="Y23" t="n">
-        <v>560.3119988565613</v>
+        <v>560.3119988565634</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>449.8139535972313</v>
+        <v>154.344985962865</v>
       </c>
       <c r="C24" t="n">
-        <v>449.8139535972313</v>
+        <v>154.344985962865</v>
       </c>
       <c r="D24" t="n">
-        <v>300.87954393598</v>
+        <v>154.344985962865</v>
       </c>
       <c r="E24" t="n">
-        <v>300.87954393598</v>
+        <v>154.344985962865</v>
       </c>
       <c r="F24" t="n">
-        <v>154.3449859628649</v>
+        <v>154.344985962865</v>
       </c>
       <c r="G24" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="H24" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="I24" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="J24" t="n">
-        <v>41.24594382033389</v>
+        <v>41.24594382033395</v>
       </c>
       <c r="K24" t="n">
-        <v>211.1940372584257</v>
+        <v>211.1940372584258</v>
       </c>
       <c r="L24" t="n">
-        <v>407.9058885347467</v>
+        <v>407.9058885347474</v>
       </c>
       <c r="M24" t="n">
-        <v>604.6177398110677</v>
+        <v>598.0835074158867</v>
       </c>
       <c r="N24" t="n">
-        <v>794.795358692206</v>
+        <v>598.0835074158867</v>
       </c>
       <c r="O24" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="P24" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="Q24" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="R24" t="n">
-        <v>794.795358692206</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="S24" t="n">
-        <v>626.6113341916476</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="T24" t="n">
-        <v>449.8139535972313</v>
+        <v>723.9721203022302</v>
       </c>
       <c r="U24" t="n">
-        <v>449.8139535972313</v>
+        <v>523.2662216425816</v>
       </c>
       <c r="V24" t="n">
-        <v>449.8139535972313</v>
+        <v>523.2662216425816</v>
       </c>
       <c r="W24" t="n">
-        <v>449.8139535972313</v>
+        <v>322.560322982933</v>
       </c>
       <c r="X24" t="n">
-        <v>449.8139535972313</v>
+        <v>322.560322982933</v>
       </c>
       <c r="Y24" t="n">
-        <v>449.8139535972313</v>
+        <v>322.560322982933</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="C25" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="D25" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="E25" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="F25" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="G25" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="H25" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="I25" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="J25" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
       <c r="K25" t="n">
-        <v>20.7459437227724</v>
+        <v>20.74594372277246</v>
       </c>
       <c r="L25" t="n">
-        <v>82.4787552992222</v>
+        <v>82.47875529922226</v>
       </c>
       <c r="M25" t="n">
-        <v>157.9564726222215</v>
+        <v>157.9564726222216</v>
       </c>
       <c r="N25" t="n">
         <v>237.0741149501262</v>
       </c>
       <c r="O25" t="n">
-        <v>294.1357676869406</v>
+        <v>294.1357676869407</v>
       </c>
       <c r="P25" t="n">
         <v>319.4411870795273</v>
@@ -6181,16 +6181,16 @@
         <v>319.4411870795273</v>
       </c>
       <c r="V25" t="n">
-        <v>216.6018058334921</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="W25" t="n">
-        <v>15.89590717384412</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="X25" t="n">
-        <v>15.89590717384412</v>
+        <v>216.6018058334927</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.89590717384412</v>
+        <v>15.89590717384417</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1474.852168841946</v>
+        <v>1474.852168841945</v>
       </c>
       <c r="C26" t="n">
         <v>1256.396813742803</v>
@@ -6209,31 +6209,31 @@
         <v>1048.638276977322</v>
       </c>
       <c r="E26" t="n">
-        <v>813.3571862203469</v>
+        <v>813.3571862203464</v>
       </c>
       <c r="F26" t="n">
-        <v>552.8784432720084</v>
+        <v>552.8784432720081</v>
       </c>
       <c r="G26" t="n">
-        <v>284.414473235736</v>
+        <v>284.4144732357361</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41066049483348</v>
+        <v>97.41066049483425</v>
       </c>
       <c r="I26" t="n">
-        <v>55.61699646743751</v>
+        <v>55.61699646743752</v>
       </c>
       <c r="J26" t="n">
-        <v>235.1029331023913</v>
+        <v>235.1029331023915</v>
       </c>
       <c r="K26" t="n">
-        <v>551.2803454048152</v>
+        <v>551.2803454048153</v>
       </c>
       <c r="L26" t="n">
         <v>960.3133146464274</v>
       </c>
       <c r="M26" t="n">
-        <v>1415.424320284889</v>
+        <v>1415.42432028489</v>
       </c>
       <c r="N26" t="n">
         <v>1860.880600751948</v>
@@ -6245,7 +6245,7 @@
         <v>2555.933796409426</v>
       </c>
       <c r="Q26" t="n">
-        <v>2749.288476315058</v>
+        <v>2749.288476315059</v>
       </c>
       <c r="R26" t="n">
         <v>2780.849823371876</v>
@@ -6266,7 +6266,7 @@
         <v>2173.535613619151</v>
       </c>
       <c r="X26" t="n">
-        <v>1950.577017199341</v>
+        <v>1950.57701719934</v>
       </c>
       <c r="Y26" t="n">
         <v>1710.944847064798</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>638.404615856265</v>
+        <v>674.291117516156</v>
       </c>
       <c r="C27" t="n">
-        <v>463.9515865751379</v>
+        <v>499.8380882350289</v>
       </c>
       <c r="D27" t="n">
-        <v>463.9515865751379</v>
+        <v>499.8380882350289</v>
       </c>
       <c r="E27" t="n">
-        <v>304.7141315696824</v>
+        <v>340.6006332295734</v>
       </c>
       <c r="F27" t="n">
-        <v>304.7141315696824</v>
+        <v>194.0660752564584</v>
       </c>
       <c r="G27" t="n">
-        <v>166.2650527806616</v>
+        <v>55.61699646743752</v>
       </c>
       <c r="H27" t="n">
-        <v>55.61699646743751</v>
+        <v>55.61699646743752</v>
       </c>
       <c r="I27" t="n">
-        <v>55.61699646743751</v>
+        <v>55.61699646743752</v>
       </c>
       <c r="J27" t="n">
-        <v>80.96703311392729</v>
+        <v>80.9670331139273</v>
       </c>
       <c r="K27" t="n">
         <v>250.9151265520192</v>
@@ -6312,7 +6312,7 @@
         <v>540.8357073637233</v>
       </c>
       <c r="M27" t="n">
-        <v>931.1385721409274</v>
+        <v>931.1385721409275</v>
       </c>
       <c r="N27" t="n">
         <v>1347.478605753821</v>
@@ -6321,7 +6321,7 @@
         <v>1661.932719630777</v>
       </c>
       <c r="P27" t="n">
-        <v>1897.306801104016</v>
+        <v>1897.306801104017</v>
       </c>
       <c r="Q27" t="n">
         <v>2001.950371853512</v>
@@ -6330,25 +6330,25 @@
         <v>2001.950371853512</v>
       </c>
       <c r="S27" t="n">
-        <v>1833.766347352954</v>
+        <v>1984.273509194223</v>
       </c>
       <c r="T27" t="n">
-        <v>1632.715389340957</v>
+        <v>1825.205638926604</v>
       </c>
       <c r="U27" t="n">
-        <v>1404.510307039739</v>
+        <v>1597.000556625386</v>
       </c>
       <c r="V27" t="n">
-        <v>1319.865360649265</v>
+        <v>1361.848448393643</v>
       </c>
       <c r="W27" t="n">
-        <v>1065.628003921064</v>
+        <v>1107.611091665442</v>
       </c>
       <c r="X27" t="n">
-        <v>1008.2836655568</v>
+        <v>899.7595914599087</v>
       </c>
       <c r="Y27" t="n">
-        <v>806.6199528763329</v>
+        <v>842.5064545362241</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.16140348555217</v>
+        <v>98.16140348555219</v>
       </c>
       <c r="C28" t="n">
-        <v>79.73238239891447</v>
+        <v>79.73238239891448</v>
       </c>
       <c r="D28" t="n">
-        <v>79.73238239891447</v>
+        <v>79.73238239891448</v>
       </c>
       <c r="E28" t="n">
-        <v>82.27482869943893</v>
+        <v>82.27482869943894</v>
       </c>
       <c r="F28" t="n">
-        <v>85.82006047736493</v>
+        <v>85.82006047736495</v>
       </c>
       <c r="G28" t="n">
-        <v>66.87557128953446</v>
+        <v>66.87557128953448</v>
       </c>
       <c r="H28" t="n">
-        <v>55.61699646743751</v>
+        <v>55.61699646743752</v>
       </c>
       <c r="I28" t="n">
-        <v>56.19512417614197</v>
+        <v>56.19512417614198</v>
       </c>
       <c r="J28" t="n">
         <v>127.649107042892</v>
       </c>
       <c r="K28" t="n">
-        <v>280.0112129124482</v>
+        <v>132.4991435918203</v>
       </c>
       <c r="L28" t="n">
-        <v>341.744024488898</v>
+        <v>194.2319551682701</v>
       </c>
       <c r="M28" t="n">
-        <v>564.7338111325253</v>
+        <v>417.2217418118973</v>
       </c>
       <c r="N28" t="n">
-        <v>643.8514534604299</v>
+        <v>643.85145346043</v>
       </c>
       <c r="O28" t="n">
-        <v>700.9131061972442</v>
+        <v>720.2901718532783</v>
       </c>
       <c r="P28" t="n">
         <v>745.5955912458649</v>
@@ -6437,58 +6437,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1474.852168841945</v>
+        <v>1474.852168841946</v>
       </c>
       <c r="C29" t="n">
         <v>1256.396813742803</v>
       </c>
       <c r="D29" t="n">
-        <v>1048.638276977321</v>
+        <v>1048.638276977322</v>
       </c>
       <c r="E29" t="n">
-        <v>813.3571862203462</v>
+        <v>813.3571862203468</v>
       </c>
       <c r="F29" t="n">
-        <v>552.8784432720079</v>
+        <v>552.8784432720084</v>
       </c>
       <c r="G29" t="n">
-        <v>284.4144732357358</v>
+        <v>284.4144732357363</v>
       </c>
       <c r="H29" t="n">
-        <v>97.41066049483346</v>
+        <v>97.41066049483345</v>
       </c>
       <c r="I29" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743752</v>
       </c>
       <c r="J29" t="n">
-        <v>235.1029331023914</v>
+        <v>235.1029331023916</v>
       </c>
       <c r="K29" t="n">
-        <v>551.2803454048153</v>
+        <v>551.2803454048155</v>
       </c>
       <c r="L29" t="n">
-        <v>960.3133146464273</v>
+        <v>960.3133146464277</v>
       </c>
       <c r="M29" t="n">
-        <v>1415.424320284889</v>
+        <v>1415.42432028489</v>
       </c>
       <c r="N29" t="n">
-        <v>1860.880600751947</v>
+        <v>1860.880600751948</v>
       </c>
       <c r="O29" t="n">
         <v>2244.545302124367</v>
       </c>
       <c r="P29" t="n">
-        <v>2555.933796409425</v>
+        <v>2555.933796409426</v>
       </c>
       <c r="Q29" t="n">
-        <v>2749.288476315058</v>
+        <v>2749.288476315059</v>
       </c>
       <c r="R29" t="n">
-        <v>2780.849823371875</v>
+        <v>2780.849823371876</v>
       </c>
       <c r="S29" t="n">
-        <v>2732.225106987912</v>
+        <v>2732.225106987913</v>
       </c>
       <c r="T29" t="n">
         <v>2659.688041972995</v>
@@ -6503,7 +6503,7 @@
         <v>2173.535613619151</v>
       </c>
       <c r="X29" t="n">
-        <v>1950.57701719934</v>
+        <v>1950.577017199341</v>
       </c>
       <c r="Y29" t="n">
         <v>1710.944847064798</v>
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>849.6458295822736</v>
+        <v>782.8151916130475</v>
       </c>
       <c r="C30" t="n">
-        <v>675.1928003011466</v>
+        <v>701.5706175779983</v>
       </c>
       <c r="D30" t="n">
-        <v>526.2583906398953</v>
+        <v>552.636207916747</v>
       </c>
       <c r="E30" t="n">
-        <v>367.0209356344398</v>
+        <v>393.3987529112916</v>
       </c>
       <c r="F30" t="n">
-        <v>220.4863776613248</v>
+        <v>246.8641949381766</v>
       </c>
       <c r="G30" t="n">
-        <v>82.03729887230395</v>
+        <v>246.8641949381766</v>
       </c>
       <c r="H30" t="n">
-        <v>82.03729887230395</v>
+        <v>136.2161386249525</v>
       </c>
       <c r="I30" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743752</v>
       </c>
       <c r="J30" t="n">
-        <v>80.96703311392727</v>
+        <v>80.9670331139273</v>
       </c>
       <c r="K30" t="n">
-        <v>250.9151265520191</v>
+        <v>250.9151265520192</v>
       </c>
       <c r="L30" t="n">
-        <v>540.8357073637231</v>
+        <v>540.8357073637233</v>
       </c>
       <c r="M30" t="n">
-        <v>931.1385721409274</v>
+        <v>931.1385721409275</v>
       </c>
       <c r="N30" t="n">
         <v>1347.478605753821</v>
@@ -6558,34 +6558,34 @@
         <v>1661.932719630777</v>
       </c>
       <c r="P30" t="n">
-        <v>1897.306801104016</v>
+        <v>1897.306801104017</v>
       </c>
       <c r="Q30" t="n">
         <v>2001.950371853512</v>
       </c>
       <c r="R30" t="n">
-        <v>1918.273847981469</v>
+        <v>2001.950371853512</v>
       </c>
       <c r="S30" t="n">
-        <v>1900.59698532218</v>
+        <v>1984.273509194223</v>
       </c>
       <c r="T30" t="n">
-        <v>1850.053189151453</v>
+        <v>1783.222551182227</v>
       </c>
       <c r="U30" t="n">
-        <v>1621.848106850234</v>
+        <v>1705.524630722277</v>
       </c>
       <c r="V30" t="n">
-        <v>1386.695998618492</v>
+        <v>1470.372522490535</v>
       </c>
       <c r="W30" t="n">
-        <v>1282.965803731559</v>
+        <v>1216.135165762333</v>
       </c>
       <c r="X30" t="n">
-        <v>1225.621465367296</v>
+        <v>1008.2836655568</v>
       </c>
       <c r="Y30" t="n">
-        <v>1017.861166602342</v>
+        <v>951.0305286331156</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.77865245295445</v>
+        <v>97.7786524529543</v>
       </c>
       <c r="C31" t="n">
-        <v>79.34963136631674</v>
+        <v>79.34963136631663</v>
       </c>
       <c r="D31" t="n">
-        <v>79.73238239891445</v>
+        <v>79.73238239891437</v>
       </c>
       <c r="E31" t="n">
-        <v>82.27482869943891</v>
+        <v>82.27482869943886</v>
       </c>
       <c r="F31" t="n">
-        <v>85.82006047736492</v>
+        <v>85.82006047736489</v>
       </c>
       <c r="G31" t="n">
         <v>66.87557128953445</v>
       </c>
       <c r="H31" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743752</v>
       </c>
       <c r="I31" t="n">
-        <v>55.6169964674375</v>
+        <v>56.19512417614201</v>
       </c>
       <c r="J31" t="n">
-        <v>127.0709793341875</v>
+        <v>127.649107042892</v>
       </c>
       <c r="K31" t="n">
-        <v>131.9210158831158</v>
+        <v>280.0112129124483</v>
       </c>
       <c r="L31" t="n">
-        <v>193.6538274595656</v>
+        <v>341.7440244888981</v>
       </c>
       <c r="M31" t="n">
-        <v>416.6436141031928</v>
+        <v>417.2217418118974</v>
       </c>
       <c r="N31" t="n">
-        <v>495.7612564310975</v>
+        <v>515.3336987632376</v>
       </c>
       <c r="O31" t="n">
-        <v>700.3349784885398</v>
+        <v>719.90742082068</v>
       </c>
       <c r="P31" t="n">
-        <v>745.2128402132673</v>
+        <v>745.2128402132666</v>
       </c>
       <c r="Q31" t="n">
-        <v>826.8099900768699</v>
+        <v>826.8099900768692</v>
       </c>
       <c r="R31" t="n">
-        <v>808.8536397548761</v>
+        <v>808.8536397548754</v>
       </c>
       <c r="S31" t="n">
-        <v>737.1978518582413</v>
+        <v>737.1978518582407</v>
       </c>
       <c r="T31" t="n">
-        <v>658.4661912709023</v>
+        <v>658.4661912709018</v>
       </c>
       <c r="U31" t="n">
-        <v>519.7750963612431</v>
+        <v>519.7750963612427</v>
       </c>
       <c r="V31" t="n">
-        <v>415.5977699966254</v>
+        <v>415.5977699966251</v>
       </c>
       <c r="W31" t="n">
-        <v>276.687761800934</v>
+        <v>276.6877618009337</v>
       </c>
       <c r="X31" t="n">
-        <v>199.2053727441858</v>
+        <v>199.2053727441856</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.9199554419249</v>
+        <v>128.9199554419248</v>
       </c>
     </row>
     <row r="32">
@@ -6683,67 +6683,67 @@
         <v>1048.638276977322</v>
       </c>
       <c r="E32" t="n">
-        <v>813.3571862203468</v>
+        <v>813.357186220347</v>
       </c>
       <c r="F32" t="n">
-        <v>552.8784432720084</v>
+        <v>552.8784432720086</v>
       </c>
       <c r="G32" t="n">
-        <v>284.414473235736</v>
+        <v>284.4144732357363</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41066049483344</v>
+        <v>97.41066049483354</v>
       </c>
       <c r="I32" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743752</v>
       </c>
       <c r="J32" t="n">
-        <v>235.1029331023914</v>
+        <v>235.1029331023913</v>
       </c>
       <c r="K32" t="n">
-        <v>551.2803454048146</v>
+        <v>551.2803454048152</v>
       </c>
       <c r="L32" t="n">
-        <v>960.3133146464269</v>
+        <v>960.3133146464273</v>
       </c>
       <c r="M32" t="n">
         <v>1415.424320284889</v>
       </c>
       <c r="N32" t="n">
-        <v>1860.880600751947</v>
+        <v>1860.880600751948</v>
       </c>
       <c r="O32" t="n">
         <v>2244.545302124367</v>
       </c>
       <c r="P32" t="n">
-        <v>2555.933796409425</v>
+        <v>2555.933796409426</v>
       </c>
       <c r="Q32" t="n">
-        <v>2749.288476315058</v>
+        <v>2749.288476315059</v>
       </c>
       <c r="R32" t="n">
-        <v>2780.849823371875</v>
+        <v>2780.849823371876</v>
       </c>
       <c r="S32" t="n">
-        <v>2732.225106987912</v>
+        <v>2732.225106987913</v>
       </c>
       <c r="T32" t="n">
-        <v>2659.688041972995</v>
+        <v>2659.688041972996</v>
       </c>
       <c r="U32" t="n">
         <v>2556.352832550298</v>
       </c>
       <c r="V32" t="n">
-        <v>2375.797107047996</v>
+        <v>2375.797107047997</v>
       </c>
       <c r="W32" t="n">
-        <v>2173.535613619151</v>
+        <v>2173.535613619152</v>
       </c>
       <c r="X32" t="n">
         <v>1950.577017199341</v>
       </c>
       <c r="Y32" t="n">
-        <v>1710.944847064798</v>
+        <v>1710.944847064799</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>487.8974540149957</v>
+        <v>782.8151916130474</v>
       </c>
       <c r="C33" t="n">
-        <v>463.9515865751379</v>
+        <v>608.3621623319204</v>
       </c>
       <c r="D33" t="n">
-        <v>463.9515865751379</v>
+        <v>608.3621623319204</v>
       </c>
       <c r="E33" t="n">
-        <v>304.7141315696824</v>
+        <v>449.1247073264649</v>
       </c>
       <c r="F33" t="n">
-        <v>304.7141315696824</v>
+        <v>302.5901493533499</v>
       </c>
       <c r="G33" t="n">
-        <v>166.2650527806616</v>
+        <v>164.1410705643291</v>
       </c>
       <c r="H33" t="n">
-        <v>55.6169964674375</v>
+        <v>136.2161386249525</v>
       </c>
       <c r="I33" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743752</v>
       </c>
       <c r="J33" t="n">
-        <v>80.96703311392727</v>
+        <v>80.9670331139273</v>
       </c>
       <c r="K33" t="n">
-        <v>250.9151265520191</v>
+        <v>250.9151265520192</v>
       </c>
       <c r="L33" t="n">
-        <v>540.8357073637231</v>
+        <v>540.8357073637233</v>
       </c>
       <c r="M33" t="n">
-        <v>931.1385721409274</v>
+        <v>931.1385721409275</v>
       </c>
       <c r="N33" t="n">
         <v>1347.478605753821</v>
@@ -6795,7 +6795,7 @@
         <v>1661.932719630777</v>
       </c>
       <c r="P33" t="n">
-        <v>1897.306801104016</v>
+        <v>1897.306801104017</v>
       </c>
       <c r="Q33" t="n">
         <v>2001.950371853512</v>
@@ -6807,22 +6807,22 @@
         <v>1833.766347352954</v>
       </c>
       <c r="T33" t="n">
-        <v>1638.811975425444</v>
+        <v>1632.715389340958</v>
       </c>
       <c r="U33" t="n">
-        <v>1410.606893124226</v>
+        <v>1404.510307039739</v>
       </c>
       <c r="V33" t="n">
-        <v>1175.454784892483</v>
+        <v>1169.358198807996</v>
       </c>
       <c r="W33" t="n">
-        <v>921.2174281642813</v>
+        <v>915.1208420797948</v>
       </c>
       <c r="X33" t="n">
-        <v>713.3659279587484</v>
+        <v>857.7765037155311</v>
       </c>
       <c r="Y33" t="n">
-        <v>656.1127910350638</v>
+        <v>800.5233667918463</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.77865245295428</v>
+        <v>97.77865245295482</v>
       </c>
       <c r="C34" t="n">
-        <v>79.3496313663166</v>
+        <v>79.34963136631706</v>
       </c>
       <c r="D34" t="n">
-        <v>79.73238239891434</v>
+        <v>79.73238239891471</v>
       </c>
       <c r="E34" t="n">
-        <v>82.27482869943883</v>
+        <v>82.27482869943911</v>
       </c>
       <c r="F34" t="n">
-        <v>85.82006047736486</v>
+        <v>85.82006047736506</v>
       </c>
       <c r="G34" t="n">
-        <v>66.87557128953442</v>
+        <v>66.87557128953453</v>
       </c>
       <c r="H34" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743752</v>
       </c>
       <c r="I34" t="n">
-        <v>56.19512417614199</v>
+        <v>56.19512417614192</v>
       </c>
       <c r="J34" t="n">
-        <v>56.19512417614199</v>
+        <v>127.6491070428919</v>
       </c>
       <c r="K34" t="n">
-        <v>151.493458215256</v>
+        <v>132.4991435918202</v>
       </c>
       <c r="L34" t="n">
-        <v>360.7383391123338</v>
+        <v>341.7440244888978</v>
       </c>
       <c r="M34" t="n">
-        <v>583.7281257559611</v>
+        <v>417.2217418118971</v>
       </c>
       <c r="N34" t="n">
-        <v>662.8457680838657</v>
+        <v>496.3393841398018</v>
       </c>
       <c r="O34" t="n">
-        <v>719.90742082068</v>
+        <v>700.9131061972441</v>
       </c>
       <c r="P34" t="n">
-        <v>745.2128402132666</v>
+        <v>745.212840213268</v>
       </c>
       <c r="Q34" t="n">
-        <v>826.8099900768692</v>
+        <v>826.8099900768706</v>
       </c>
       <c r="R34" t="n">
-        <v>808.8536397548754</v>
+        <v>808.8536397548767</v>
       </c>
       <c r="S34" t="n">
-        <v>737.1978518582407</v>
+        <v>737.1978518582418</v>
       </c>
       <c r="T34" t="n">
-        <v>658.4661912709018</v>
+        <v>658.4661912709029</v>
       </c>
       <c r="U34" t="n">
-        <v>519.7750963612427</v>
+        <v>519.7750963612436</v>
       </c>
       <c r="V34" t="n">
-        <v>415.5977699966251</v>
+        <v>415.597769996626</v>
       </c>
       <c r="W34" t="n">
-        <v>276.6877618009337</v>
+        <v>276.6877618009345</v>
       </c>
       <c r="X34" t="n">
-        <v>199.2053727441856</v>
+        <v>199.2053727441863</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.9199554419247</v>
+        <v>128.9199554419254</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C35" t="n">
-        <v>933.9068305773302</v>
+        <v>933.9068305773297</v>
       </c>
       <c r="D35" t="n">
-        <v>779.1083762046952</v>
+        <v>779.1083762046951</v>
       </c>
       <c r="E35" t="n">
-        <v>596.7873678405665</v>
+        <v>596.7873678405666</v>
       </c>
       <c r="F35" t="n">
-        <v>389.2687072850745</v>
+        <v>389.2687072850748</v>
       </c>
       <c r="G35" t="n">
-        <v>173.7648196416497</v>
+        <v>173.7648196416494</v>
       </c>
       <c r="H35" t="n">
-        <v>39.72108929359338</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="I35" t="n">
-        <v>50.66529593357127</v>
+        <v>50.66529593357141</v>
       </c>
       <c r="J35" t="n">
-        <v>282.0574093217538</v>
+        <v>282.0574093217541</v>
       </c>
       <c r="K35" t="n">
-        <v>650.1409983774063</v>
+        <v>450.72275230355</v>
       </c>
       <c r="L35" t="n">
-        <v>934.6396496141786</v>
+        <v>911.661898298391</v>
       </c>
       <c r="M35" t="n">
-        <v>1242.238585932012</v>
+        <v>1219.260834616225</v>
       </c>
       <c r="N35" t="n">
-        <v>1540.182797078443</v>
+        <v>1517.205045762656</v>
       </c>
       <c r="O35" t="n">
-        <v>1776.335429130234</v>
+        <v>1753.357677814447</v>
       </c>
       <c r="P35" t="n">
-        <v>1940.211854094665</v>
+        <v>1917.234102778877</v>
       </c>
       <c r="Q35" t="n">
-        <v>1986.054464679669</v>
+        <v>1963.076713363882</v>
       </c>
       <c r="R35" t="n">
-        <v>1986.054464679669</v>
+        <v>1981.80537245436</v>
       </c>
       <c r="S35" t="n">
-        <v>1986.054464679669</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="T35" t="n">
-        <v>1966.477482057598</v>
+        <v>1966.477482057596</v>
       </c>
       <c r="U35" t="n">
-        <v>1916.102355027747</v>
+        <v>1916.102355027745</v>
       </c>
       <c r="V35" t="n">
-        <v>1788.506711918292</v>
+        <v>1788.50671191829</v>
       </c>
       <c r="W35" t="n">
-        <v>1639.205300882293</v>
+        <v>1639.205300882292</v>
       </c>
       <c r="X35" t="n">
-        <v>1469.206786855329</v>
+        <v>1469.206786855328</v>
       </c>
       <c r="Y35" t="n">
-        <v>1282.534699113633</v>
+        <v>1282.534699113632</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>807.329620003563</v>
+        <v>660.795062030448</v>
       </c>
       <c r="C36" t="n">
-        <v>632.876590722436</v>
+        <v>486.3420327493209</v>
       </c>
       <c r="D36" t="n">
-        <v>483.9421810611847</v>
+        <v>337.4076230880697</v>
       </c>
       <c r="E36" t="n">
-        <v>324.7047260557292</v>
+        <v>178.1701680826142</v>
       </c>
       <c r="F36" t="n">
         <v>178.1701680826142</v>
       </c>
       <c r="G36" t="n">
-        <v>39.72108929359338</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="H36" t="n">
-        <v>39.72108929359338</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="I36" t="n">
-        <v>39.72108929359338</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="J36" t="n">
-        <v>65.07112594008315</v>
+        <v>65.07112594008312</v>
       </c>
       <c r="K36" t="n">
         <v>235.019219378175</v>
       </c>
       <c r="L36" t="n">
-        <v>524.9398001898791</v>
+        <v>524.939800189879</v>
       </c>
       <c r="M36" t="n">
-        <v>915.2426649670833</v>
+        <v>915.2426649670832</v>
       </c>
       <c r="N36" t="n">
         <v>1331.582698579977</v>
@@ -7038,28 +7038,28 @@
         <v>1986.054464679668</v>
       </c>
       <c r="R36" t="n">
-        <v>1986.054464679668</v>
+        <v>1902.377940807625</v>
       </c>
       <c r="S36" t="n">
-        <v>1986.054464679668</v>
+        <v>1734.193916307067</v>
       </c>
       <c r="T36" t="n">
-        <v>1986.054464679668</v>
+        <v>1734.193916307067</v>
       </c>
       <c r="U36" t="n">
-        <v>1880.546220954062</v>
+        <v>1505.988834005848</v>
       </c>
       <c r="V36" t="n">
-        <v>1645.394112722319</v>
+        <v>1270.836725774105</v>
       </c>
       <c r="W36" t="n">
-        <v>1391.156755994118</v>
+        <v>1076.406861000935</v>
       </c>
       <c r="X36" t="n">
-        <v>1183.305255788585</v>
+        <v>868.5553607954018</v>
       </c>
       <c r="Y36" t="n">
-        <v>975.544957023631</v>
+        <v>660.795062030448</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.72108929359338</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="C37" t="n">
-        <v>39.72108929359338</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="D37" t="n">
-        <v>39.72108929359338</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="E37" t="n">
-        <v>39.72108929359338</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="F37" t="n">
-        <v>39.72108929359338</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="G37" t="n">
-        <v>39.72108929359338</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="H37" t="n">
-        <v>39.72108929359338</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="I37" t="n">
-        <v>39.72108929359338</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="J37" t="n">
-        <v>39.72108929359338</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="K37" t="n">
-        <v>44.57112584252167</v>
+        <v>50.23895349986402</v>
       </c>
       <c r="L37" t="n">
-        <v>106.3039374189715</v>
+        <v>111.9717650763138</v>
       </c>
       <c r="M37" t="n">
-        <v>181.7816547419707</v>
+        <v>187.4494823993131</v>
       </c>
       <c r="N37" t="n">
-        <v>266.567124727219</v>
+        <v>266.5671247272178</v>
       </c>
       <c r="O37" t="n">
-        <v>323.6287774640335</v>
+        <v>323.6287774640322</v>
       </c>
       <c r="P37" t="n">
-        <v>348.9341968566201</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="Q37" t="n">
-        <v>348.9341968566201</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="R37" t="n">
-        <v>348.9341968566201</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="S37" t="n">
-        <v>330.2384913528317</v>
+        <v>330.2384913528306</v>
       </c>
       <c r="T37" t="n">
-        <v>304.466913158339</v>
+        <v>304.4669131583381</v>
       </c>
       <c r="U37" t="n">
-        <v>218.7359006415262</v>
+        <v>218.7359006415255</v>
       </c>
       <c r="V37" t="n">
-        <v>167.5186566697548</v>
+        <v>167.5186566697543</v>
       </c>
       <c r="W37" t="n">
-        <v>81.56873086690976</v>
+        <v>81.56873086690938</v>
       </c>
       <c r="X37" t="n">
-        <v>57.04642420300795</v>
+        <v>57.04642420300775</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.72108929359338</v>
+        <v>39.72108929359334</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C38" t="n">
-        <v>933.9068305773302</v>
+        <v>933.9068305773301</v>
       </c>
       <c r="D38" t="n">
         <v>779.1083762046953</v>
       </c>
       <c r="E38" t="n">
-        <v>596.7873678405667</v>
+        <v>596.7873678405666</v>
       </c>
       <c r="F38" t="n">
-        <v>389.2687072850748</v>
+        <v>389.2687072850747</v>
       </c>
       <c r="G38" t="n">
-        <v>173.7648196416496</v>
+        <v>173.7648196416495</v>
       </c>
       <c r="H38" t="n">
         <v>39.72108929359336</v>
       </c>
       <c r="I38" t="n">
-        <v>39.72108929359336</v>
+        <v>50.66529593357137</v>
       </c>
       <c r="J38" t="n">
-        <v>71.69495660791927</v>
+        <v>282.057409321754</v>
       </c>
       <c r="K38" t="n">
-        <v>240.3602995897152</v>
+        <v>650.1409983774067</v>
       </c>
       <c r="L38" t="n">
-        <v>501.8811995106994</v>
+        <v>911.661898298391</v>
       </c>
       <c r="M38" t="n">
-        <v>809.4801358285333</v>
+        <v>1219.260834616225</v>
       </c>
       <c r="N38" t="n">
-        <v>1107.424346974964</v>
+        <v>1517.205045762656</v>
       </c>
       <c r="O38" t="n">
-        <v>1489.200567021023</v>
+        <v>1753.357677814447</v>
       </c>
       <c r="P38" t="n">
-        <v>1653.076991985454</v>
+        <v>1917.234102778877</v>
       </c>
       <c r="Q38" t="n">
-        <v>1898.337848644315</v>
+        <v>1963.076713363882</v>
       </c>
       <c r="R38" t="n">
-        <v>1981.805372454361</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S38" t="n">
         <v>1986.054464679668</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>888.1000256620657</v>
+        <v>998.5768184743021</v>
       </c>
       <c r="C39" t="n">
-        <v>713.6469963809387</v>
+        <v>824.1237891931751</v>
       </c>
       <c r="D39" t="n">
-        <v>564.7125867196875</v>
+        <v>675.1893795319238</v>
       </c>
       <c r="E39" t="n">
-        <v>405.475131714232</v>
+        <v>515.9519245264682</v>
       </c>
       <c r="F39" t="n">
-        <v>258.940573741117</v>
+        <v>369.4173665533532</v>
       </c>
       <c r="G39" t="n">
         <v>230.9682877643324</v>
@@ -7251,7 +7251,7 @@
         <v>39.72108929359336</v>
       </c>
       <c r="J39" t="n">
-        <v>65.07112594008328</v>
+        <v>65.07112594008322</v>
       </c>
       <c r="K39" t="n">
         <v>235.0192193781751</v>
@@ -7260,7 +7260,7 @@
         <v>524.9398001898792</v>
       </c>
       <c r="M39" t="n">
-        <v>915.2426649670833</v>
+        <v>915.2426649670834</v>
       </c>
       <c r="N39" t="n">
         <v>1331.582698579977</v>
@@ -7269,7 +7269,7 @@
         <v>1646.036812456933</v>
       </c>
       <c r="P39" t="n">
-        <v>1881.410893930172</v>
+        <v>1881.410893930173</v>
       </c>
       <c r="Q39" t="n">
         <v>1986.054464679668</v>
@@ -7281,22 +7281,22 @@
         <v>1986.054464679668</v>
       </c>
       <c r="T39" t="n">
-        <v>1986.054464679668</v>
+        <v>1785.003506667672</v>
       </c>
       <c r="U39" t="n">
-        <v>1757.849382378449</v>
+        <v>1556.798424366453</v>
       </c>
       <c r="V39" t="n">
-        <v>1726.164518380822</v>
+        <v>1525.113560368826</v>
       </c>
       <c r="W39" t="n">
-        <v>1471.92716165262</v>
+        <v>1378.936710230741</v>
       </c>
       <c r="X39" t="n">
-        <v>1264.075661447088</v>
+        <v>1374.552454259324</v>
       </c>
       <c r="Y39" t="n">
-        <v>1056.315362682134</v>
+        <v>1166.79215549437</v>
       </c>
     </row>
     <row r="40">
@@ -7318,22 +7318,22 @@
         <v>39.72108929359336</v>
       </c>
       <c r="F40" t="n">
-        <v>39.72108929359336</v>
+        <v>45.38891695093619</v>
       </c>
       <c r="G40" t="n">
-        <v>45.38891695093622</v>
+        <v>45.38891695093619</v>
       </c>
       <c r="H40" t="n">
-        <v>45.38891695093622</v>
+        <v>45.38891695093619</v>
       </c>
       <c r="I40" t="n">
-        <v>45.38891695093622</v>
+        <v>45.38891695093619</v>
       </c>
       <c r="J40" t="n">
-        <v>45.38891695093622</v>
+        <v>45.38891695093619</v>
       </c>
       <c r="K40" t="n">
-        <v>50.2389534998645</v>
+        <v>50.23895349986448</v>
       </c>
       <c r="L40" t="n">
         <v>111.9717650763143</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1099.402103283627</v>
+        <v>1099.402103283626</v>
       </c>
       <c r="C41" t="n">
-        <v>933.9068305773308</v>
+        <v>933.9068305773301</v>
       </c>
       <c r="D41" t="n">
-        <v>779.1083762046959</v>
+        <v>779.1083762046953</v>
       </c>
       <c r="E41" t="n">
-        <v>596.7873678405673</v>
+        <v>596.7873678405667</v>
       </c>
       <c r="F41" t="n">
-        <v>389.2687072850756</v>
+        <v>389.2687072850749</v>
       </c>
       <c r="G41" t="n">
         <v>173.7648196416495</v>
@@ -7406,31 +7406,31 @@
         <v>39.72108929359336</v>
       </c>
       <c r="I41" t="n">
-        <v>50.66529593357142</v>
+        <v>50.66529593357143</v>
       </c>
       <c r="J41" t="n">
-        <v>82.63916324789733</v>
+        <v>82.63916324789736</v>
       </c>
       <c r="K41" t="n">
-        <v>251.3045062296933</v>
+        <v>450.7227523035501</v>
       </c>
       <c r="L41" t="n">
-        <v>653.3187647170371</v>
+        <v>712.2436522245343</v>
       </c>
       <c r="M41" t="n">
-        <v>960.917701034871</v>
+        <v>1203.792132232752</v>
       </c>
       <c r="N41" t="n">
-        <v>1452.466181043089</v>
+        <v>1501.736343379183</v>
       </c>
       <c r="O41" t="n">
-        <v>1688.61881309488</v>
+        <v>1737.888975430974</v>
       </c>
       <c r="P41" t="n">
-        <v>1852.495238059311</v>
+        <v>1901.765400395405</v>
       </c>
       <c r="Q41" t="n">
-        <v>1898.337848644315</v>
+        <v>1947.608010980409</v>
       </c>
       <c r="R41" t="n">
         <v>1981.805372454361</v>
@@ -7448,13 +7448,13 @@
         <v>1788.506711918291</v>
       </c>
       <c r="W41" t="n">
-        <v>1639.205300882293</v>
+        <v>1639.205300882292</v>
       </c>
       <c r="X41" t="n">
-        <v>1469.206786855329</v>
+        <v>1469.206786855328</v>
       </c>
       <c r="Y41" t="n">
-        <v>1282.534699113633</v>
+        <v>1282.534699113632</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>554.3557267067107</v>
+        <v>749.4796833720571</v>
       </c>
       <c r="C42" t="n">
-        <v>379.9026974255837</v>
+        <v>575.0266540909302</v>
       </c>
       <c r="D42" t="n">
-        <v>230.9682877643324</v>
+        <v>426.0922444296789</v>
       </c>
       <c r="E42" t="n">
-        <v>230.9682877643324</v>
+        <v>266.8547894242234</v>
       </c>
       <c r="F42" t="n">
-        <v>230.9682877643324</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="G42" t="n">
-        <v>230.9682877643324</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="H42" t="n">
         <v>120.3202314511084</v>
@@ -7488,16 +7488,16 @@
         <v>39.72108929359336</v>
       </c>
       <c r="J42" t="n">
-        <v>65.07112594008311</v>
+        <v>65.07112594008339</v>
       </c>
       <c r="K42" t="n">
-        <v>235.019219378175</v>
+        <v>235.0192193781753</v>
       </c>
       <c r="L42" t="n">
-        <v>524.939800189879</v>
+        <v>524.9398001898793</v>
       </c>
       <c r="M42" t="n">
-        <v>915.2426649670832</v>
+        <v>915.2426649670836</v>
       </c>
       <c r="N42" t="n">
         <v>1331.582698579977</v>
@@ -7512,28 +7512,28 @@
         <v>1986.054464679668</v>
       </c>
       <c r="R42" t="n">
-        <v>1986.054464679668</v>
+        <v>1902.377940807625</v>
       </c>
       <c r="S42" t="n">
-        <v>1817.87044017911</v>
+        <v>1734.193916307067</v>
       </c>
       <c r="T42" t="n">
-        <v>1616.819482167114</v>
+        <v>1533.14295829507</v>
       </c>
       <c r="U42" t="n">
-        <v>1459.356990637142</v>
+        <v>1304.937875993852</v>
       </c>
       <c r="V42" t="n">
-        <v>1224.204882405399</v>
+        <v>1069.785767762109</v>
       </c>
       <c r="W42" t="n">
-        <v>969.9675256771975</v>
+        <v>815.5484110339075</v>
       </c>
       <c r="X42" t="n">
-        <v>762.1160254716647</v>
+        <v>753.7727379028953</v>
       </c>
       <c r="Y42" t="n">
-        <v>554.3557267067107</v>
+        <v>749.4796833720571</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.72108929359336</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="C43" t="n">
-        <v>39.72108929359336</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="D43" t="n">
-        <v>45.38891695093577</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="E43" t="n">
-        <v>45.38891695093577</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="F43" t="n">
-        <v>45.38891695093577</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="G43" t="n">
-        <v>45.38891695093577</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="H43" t="n">
-        <v>45.38891695093577</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="I43" t="n">
-        <v>45.38891695093577</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="J43" t="n">
-        <v>45.38891695093577</v>
+        <v>45.38891695093574</v>
       </c>
       <c r="K43" t="n">
-        <v>50.23895349986405</v>
+        <v>50.23895349986402</v>
       </c>
       <c r="L43" t="n">
         <v>111.9717650763138</v>
@@ -7646,28 +7646,28 @@
         <v>39.72108929359336</v>
       </c>
       <c r="J44" t="n">
-        <v>271.113202681776</v>
+        <v>71.69495660791928</v>
       </c>
       <c r="K44" t="n">
-        <v>439.7785456635719</v>
+        <v>240.3602995897152</v>
       </c>
       <c r="L44" t="n">
-        <v>701.2994455845561</v>
+        <v>501.8811995106994</v>
       </c>
       <c r="M44" t="n">
-        <v>1008.89838190239</v>
+        <v>809.4801358285334</v>
       </c>
       <c r="N44" t="n">
-        <v>1306.842593048821</v>
+        <v>1107.424346974964</v>
       </c>
       <c r="O44" t="n">
-        <v>1542.995225100612</v>
+        <v>1343.576979026755</v>
       </c>
       <c r="P44" t="n">
-        <v>1906.289896138899</v>
+        <v>1706.871650065042</v>
       </c>
       <c r="Q44" t="n">
-        <v>1952.132506723903</v>
+        <v>1952.132506723904</v>
       </c>
       <c r="R44" t="n">
         <v>1981.805372454361</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>839.3393634688465</v>
+        <v>483.5818234159543</v>
       </c>
       <c r="C45" t="n">
-        <v>664.8863341877195</v>
+        <v>483.5818234159543</v>
       </c>
       <c r="D45" t="n">
-        <v>515.9519245264682</v>
+        <v>334.647413754703</v>
       </c>
       <c r="E45" t="n">
-        <v>515.9519245264682</v>
+        <v>334.647413754703</v>
       </c>
       <c r="F45" t="n">
-        <v>369.4173665533532</v>
+        <v>230.9682877643324</v>
       </c>
       <c r="G45" t="n">
         <v>230.9682877643324</v>
@@ -7725,13 +7725,13 @@
         <v>39.72108929359336</v>
       </c>
       <c r="J45" t="n">
-        <v>65.0711259400835</v>
+        <v>65.07112594008339</v>
       </c>
       <c r="K45" t="n">
-        <v>235.0192193781754</v>
+        <v>235.0192193781753</v>
       </c>
       <c r="L45" t="n">
-        <v>524.9398001898794</v>
+        <v>524.9398001898793</v>
       </c>
       <c r="M45" t="n">
         <v>915.2426649670836</v>
@@ -7752,25 +7752,25 @@
         <v>1986.054464679668</v>
       </c>
       <c r="S45" t="n">
-        <v>1817.87044017911</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T45" t="n">
-        <v>1616.819482167114</v>
+        <v>1785.003506667672</v>
       </c>
       <c r="U45" t="n">
-        <v>1505.621475951114</v>
+        <v>1556.798424366453</v>
       </c>
       <c r="V45" t="n">
-        <v>1270.469367719371</v>
+        <v>1321.646316134711</v>
       </c>
       <c r="W45" t="n">
-        <v>1219.699255225285</v>
+        <v>1067.408959406509</v>
       </c>
       <c r="X45" t="n">
-        <v>1215.314999253868</v>
+        <v>859.5574592009762</v>
       </c>
       <c r="Y45" t="n">
-        <v>1007.554700488914</v>
+        <v>651.7971604360223</v>
       </c>
     </row>
     <row r="46">
@@ -7795,19 +7795,19 @@
         <v>39.72108929359336</v>
       </c>
       <c r="G46" t="n">
-        <v>45.38891695093622</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H46" t="n">
-        <v>45.38891695093622</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I46" t="n">
-        <v>45.38891695093622</v>
+        <v>45.38891695093619</v>
       </c>
       <c r="J46" t="n">
-        <v>45.38891695093622</v>
+        <v>45.38891695093619</v>
       </c>
       <c r="K46" t="n">
-        <v>50.2389534998645</v>
+        <v>50.23895349986448</v>
       </c>
       <c r="L46" t="n">
         <v>111.9717650763143</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>136.7997795010375</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>352.1975290507906</v>
+        <v>352.1975290507914</v>
       </c>
       <c r="M11" t="n">
-        <v>337.5063768852436</v>
+        <v>159.109107623913</v>
       </c>
       <c r="N11" t="n">
-        <v>323.0967501929615</v>
+        <v>335.0920154522782</v>
       </c>
       <c r="O11" t="n">
-        <v>142.262169089219</v>
+        <v>340.9610087622713</v>
       </c>
       <c r="P11" t="n">
         <v>156.2669657831689</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>92.80049616602116</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>77.99127377648543</v>
+        <v>276.6901134495377</v>
       </c>
       <c r="M12" t="n">
-        <v>130.8236753825348</v>
+        <v>270.1585854662802</v>
       </c>
       <c r="N12" t="n">
-        <v>257.4957255187331</v>
+        <v>145.1949142614841</v>
       </c>
       <c r="O12" t="n">
-        <v>274.9307408922494</v>
+        <v>76.23190121919789</v>
       </c>
       <c r="P12" t="n">
-        <v>279.4100108652721</v>
+        <v>80.71117119222055</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,19 +8927,19 @@
         <v>136.7997795010375</v>
       </c>
       <c r="K14" t="n">
-        <v>153.7763792562193</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>153.4986893777391</v>
       </c>
       <c r="M14" t="n">
-        <v>316.3395709660151</v>
+        <v>145.9705376510708</v>
       </c>
       <c r="N14" t="n">
-        <v>335.0920154522775</v>
+        <v>335.092015452278</v>
       </c>
       <c r="O14" t="n">
-        <v>340.9610087622705</v>
+        <v>340.961008762271</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>77.99127377648543</v>
+        <v>276.6901134495375</v>
       </c>
       <c r="M15" t="n">
-        <v>71.45974579322794</v>
+        <v>263.5583507236718</v>
       </c>
       <c r="N15" t="n">
-        <v>170.8010118841995</v>
+        <v>58.79688584568154</v>
       </c>
       <c r="O15" t="n">
-        <v>274.9307408922494</v>
+        <v>76.23190121919789</v>
       </c>
       <c r="P15" t="n">
-        <v>279.4100108652721</v>
+        <v>279.4100108652726</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>104.3767112212073</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>136.7997795010375</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>153.7763792562193</v>
       </c>
       <c r="L17" t="n">
         <v>153.4986893777391</v>
       </c>
       <c r="M17" t="n">
-        <v>138.8075372121921</v>
+        <v>337.5063768852442</v>
       </c>
       <c r="N17" t="n">
-        <v>309.9581802201188</v>
+        <v>335.092015452278</v>
       </c>
       <c r="O17" t="n">
-        <v>340.9610087622705</v>
+        <v>340.9610087622711</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>191.1481847406767</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>257.8650022699703</v>
       </c>
       <c r="L18" t="n">
-        <v>77.99127377648543</v>
+        <v>276.6901134495375</v>
       </c>
       <c r="M18" t="n">
-        <v>71.45974579322794</v>
+        <v>270.15858546628</v>
       </c>
       <c r="N18" t="n">
-        <v>170.8010118841995</v>
+        <v>257.4957255187337</v>
       </c>
       <c r="O18" t="n">
-        <v>274.9307408922494</v>
+        <v>76.23190121919789</v>
       </c>
       <c r="P18" t="n">
-        <v>279.4100108652721</v>
+        <v>80.71117119222055</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>104.3767112212073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,22 +9404,22 @@
         <v>153.7763792562193</v>
       </c>
       <c r="L20" t="n">
-        <v>352.1975290507906</v>
+        <v>178.6375507160914</v>
       </c>
       <c r="M20" t="n">
-        <v>138.8075372121921</v>
+        <v>337.5063768852442</v>
       </c>
       <c r="N20" t="n">
-        <v>313.925209533049</v>
+        <v>335.092015452278</v>
       </c>
       <c r="O20" t="n">
-        <v>340.9610087622705</v>
+        <v>340.961008762271</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>166.0093234023244</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,22 +9483,22 @@
         <v>92.80049616602116</v>
       </c>
       <c r="L21" t="n">
-        <v>77.99127377648543</v>
+        <v>276.6901134495375</v>
       </c>
       <c r="M21" t="n">
-        <v>156.4297730052518</v>
+        <v>262.130349519894</v>
       </c>
       <c r="N21" t="n">
-        <v>257.4957255187331</v>
+        <v>58.79688584568154</v>
       </c>
       <c r="O21" t="n">
-        <v>274.9307408922494</v>
+        <v>274.93074089225</v>
       </c>
       <c r="P21" t="n">
-        <v>279.4100108652721</v>
+        <v>279.4100108652726</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>104.3767112212073</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9641,19 +9641,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>352.1975290507906</v>
+        <v>352.1975290507912</v>
       </c>
       <c r="M23" t="n">
-        <v>279.2054443683472</v>
+        <v>138.8075372121921</v>
       </c>
       <c r="N23" t="n">
-        <v>335.0920154522775</v>
+        <v>136.393175779226</v>
       </c>
       <c r="O23" t="n">
-        <v>142.262169089219</v>
+        <v>315.8271735301135</v>
       </c>
       <c r="P23" t="n">
-        <v>156.2669657831689</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>276.690113449537</v>
+        <v>276.6901134495375</v>
       </c>
       <c r="M24" t="n">
-        <v>270.1585854662794</v>
+        <v>263.5583507236718</v>
       </c>
       <c r="N24" t="n">
-        <v>250.8954907761243</v>
+        <v>58.79688584568154</v>
       </c>
       <c r="O24" t="n">
-        <v>76.23190121919791</v>
+        <v>274.93074089225</v>
       </c>
       <c r="P24" t="n">
-        <v>80.71117119222056</v>
+        <v>80.71117119222055</v>
       </c>
       <c r="Q24" t="n">
         <v>104.3767112212073</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.091035340409</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404091</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404092</v>
+        <v>126.0910353404091</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.1025192117103</v>
+        <v>204.1025192117104</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>186.6415693192373</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>176.0517191689127</v>
       </c>
       <c r="E11" t="n">
-        <v>203.2990476204915</v>
+        <v>4.600207947439259</v>
       </c>
       <c r="F11" t="n">
-        <v>29.54588361688968</v>
+        <v>108.9280124704408</v>
       </c>
       <c r="G11" t="n">
         <v>236.1500981069955</v>
@@ -23276,7 +23276,7 @@
         <v>155.5045423845798</v>
       </c>
       <c r="I11" t="n">
-        <v>11.74649515820827</v>
+        <v>11.74649515820829</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.5092369912097</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.67262509955671</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>149.1209360183647</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>170.6096462656428</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>23.5639115205768</v>
+        <v>191.0997782266988</v>
       </c>
       <c r="Y11" t="n">
-        <v>207.6066162042833</v>
+        <v>207.6066162042834</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.1025192117103</v>
+        <v>5.403679538658253</v>
       </c>
       <c r="C14" t="n">
         <v>186.6415693192373</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>176.0517191689127</v>
       </c>
       <c r="E14" t="n">
         <v>203.2990476204915</v>
@@ -23507,13 +23507,13 @@
         <v>228.2447232899412</v>
       </c>
       <c r="G14" t="n">
-        <v>48.38738001107266</v>
+        <v>90.38005711977161</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11.74649515820827</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>170.6096462656428</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>191.0997782266988</v>
       </c>
       <c r="Y14" t="n">
-        <v>207.6066162042833</v>
+        <v>8.907776531231264</v>
       </c>
     </row>
     <row r="15">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.963318810448982e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933651.4472229881</v>
+        <v>933651.4472229887</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933651.4472229882</v>
+        <v>933651.4472229887</v>
       </c>
     </row>
     <row r="7">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.8032302229</v>
+        <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.8032302228</v>
+        <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
         <v>491565.803230223</v>
       </c>
       <c r="E2" t="n">
-        <v>421824.1306990092</v>
+        <v>421824.1306990095</v>
       </c>
       <c r="F2" t="n">
-        <v>421824.130699009</v>
+        <v>421824.1306990093</v>
       </c>
       <c r="G2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="H2" t="n">
         <v>492625.0619185701</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="I2" t="n">
-        <v>492625.0619185701</v>
-      </c>
       <c r="J2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="K2" t="n">
         <v>492625.0619185694</v>
       </c>
-      <c r="K2" t="n">
-        <v>492625.0619185697</v>
-      </c>
       <c r="L2" t="n">
-        <v>492625.0619185693</v>
+        <v>492625.0619185694</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="N2" t="n">
         <v>492625.0619185701</v>
@@ -26353,7 +26353,7 @@
         <v>492625.06191857</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185701</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>306415.5272794351</v>
+        <v>306415.5272794353</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>97259.69009554037</v>
+        <v>97259.69009554019</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>151851.7906719068</v>
+        <v>151851.7906719067</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>97259.6900955404</v>
+        <v>97259.69009554012</v>
       </c>
       <c r="M3" t="n">
-        <v>41944.38525513426</v>
+        <v>41944.38525513447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>21941.98208274497</v>
+        <v>21941.98208274499</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>339717.148032153</v>
+        <v>339717.1480321531</v>
       </c>
       <c r="F4" t="n">
         <v>339717.148032153</v>
@@ -26436,7 +26436,7 @@
         <v>407016.1489321863</v>
       </c>
       <c r="I4" t="n">
-        <v>407016.1489321862</v>
+        <v>407016.1489321863</v>
       </c>
       <c r="J4" t="n">
         <v>402100.501383587</v>
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29925.21762447102</v>
+        <v>29925.21762447106</v>
       </c>
       <c r="F5" t="n">
-        <v>29925.21762447102</v>
+        <v>29925.21762447106</v>
       </c>
       <c r="G5" t="n">
-        <v>40145.8737327735</v>
+        <v>40145.87373277351</v>
       </c>
       <c r="H5" t="n">
-        <v>40145.8737327735</v>
+        <v>40145.87373277351</v>
       </c>
       <c r="I5" t="n">
-        <v>40145.87373277349</v>
+        <v>40145.87373277352</v>
       </c>
       <c r="J5" t="n">
         <v>57622.34556334945</v>
       </c>
       <c r="K5" t="n">
-        <v>57622.34556334944</v>
+        <v>57622.34556334945</v>
       </c>
       <c r="L5" t="n">
-        <v>57622.34556334944</v>
+        <v>57622.34556334945</v>
       </c>
       <c r="M5" t="n">
-        <v>49949.23426624527</v>
+        <v>49949.23426624525</v>
       </c>
       <c r="N5" t="n">
         <v>49949.23426624526</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5538.212681257726</v>
+        <v>5533.799103389731</v>
       </c>
       <c r="C6" t="n">
-        <v>5538.212681257668</v>
+        <v>5533.799103389672</v>
       </c>
       <c r="D6" t="n">
-        <v>5538.212681257843</v>
+        <v>5533.799103389731</v>
       </c>
       <c r="E6" t="n">
-        <v>-254233.76223705</v>
+        <v>-254528.7661171315</v>
       </c>
       <c r="F6" t="n">
-        <v>52181.76504238495</v>
+        <v>51886.7611623037</v>
       </c>
       <c r="G6" t="n">
-        <v>-51796.65084193004</v>
+        <v>-51796.65084193011</v>
       </c>
       <c r="H6" t="n">
-        <v>45463.03925361022</v>
+        <v>45463.03925361026</v>
       </c>
       <c r="I6" t="n">
-        <v>45463.03925361051</v>
+        <v>45463.03925361014</v>
       </c>
       <c r="J6" t="n">
-        <v>-118949.5757002738</v>
+        <v>-118949.5757002734</v>
       </c>
       <c r="K6" t="n">
-        <v>32902.21497163321</v>
+        <v>32902.21497163291</v>
       </c>
       <c r="L6" t="n">
-        <v>-64357.47512390756</v>
+        <v>-64357.4751239071</v>
       </c>
       <c r="M6" t="n">
-        <v>-417.7655410579173</v>
+        <v>-417.7655410583029</v>
       </c>
       <c r="N6" t="n">
-        <v>41526.61971407635</v>
+        <v>41526.6197140763</v>
       </c>
       <c r="O6" t="n">
-        <v>19584.63763133123</v>
+        <v>19584.63763133117</v>
       </c>
       <c r="P6" t="n">
-        <v>41526.61971407618</v>
+        <v>41526.6197140763</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>178.6313224517702</v>
       </c>
       <c r="G2" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="H2" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I2" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="J2" t="n">
         <v>149.0020902228565</v>
@@ -26716,7 +26716,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="M2" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="N2" t="n">
         <v>201.4325717917745</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730523</v>
       </c>
       <c r="F4" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="G4" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="H4" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="I4" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="J4" t="n">
-        <v>695.2124558429689</v>
+        <v>695.212455842969</v>
       </c>
       <c r="K4" t="n">
-        <v>695.2124558429688</v>
+        <v>695.212455842969</v>
       </c>
       <c r="L4" t="n">
-        <v>695.2124558429688</v>
+        <v>695.212455842969</v>
       </c>
       <c r="M4" t="n">
-        <v>496.5136161699173</v>
+        <v>496.5136161699168</v>
       </c>
       <c r="N4" t="n">
-        <v>496.5136161699169</v>
+        <v>496.513616169917</v>
       </c>
       <c r="O4" t="n">
         <v>496.513616169917</v>
@@ -26917,34 +26917,34 @@
         <v>178.6313224517702</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>121.5746126194255</v>
+        <v>121.5746126194252</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>27.42747760343116</v>
+        <v>27.42747760343119</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>121.5746126194255</v>
+        <v>121.5746126194252</v>
       </c>
       <c r="M2" t="n">
-        <v>52.43048156891783</v>
+        <v>52.43048156891808</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343121</v>
+        <v>27.42747760343124</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730523</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>496.5136161699174</v>
+        <v>496.5136161699169</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>178.6313224517702</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>121.5746126194255</v>
+        <v>121.5746126194252</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343116</v>
+        <v>27.42747760343119</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730523</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,13 +28169,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>160.4316660001384</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>131.8604485379242</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -28220,10 +28220,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3416087588246508</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="U12" t="n">
-        <v>27.22419180515488</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="V12" t="n">
         <v>178.6313224517702</v>
@@ -28232,10 +28232,10 @@
         <v>178.6313224517702</v>
       </c>
       <c r="X12" t="n">
-        <v>178.6313224517702</v>
+        <v>7.07414553042517</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.6313224517702</v>
+        <v>6.983856104252055</v>
       </c>
     </row>
     <row r="13">
@@ -28248,10 +28248,10 @@
         <v>178.6313224517702</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -28266,13 +28266,13 @@
         <v>160.1480792967325</v>
       </c>
       <c r="I13" t="n">
-        <v>148.4181228403268</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="J13" t="n">
-        <v>76.82634995341205</v>
+        <v>175.0123633660696</v>
       </c>
       <c r="K13" t="n">
-        <v>57.74896808329881</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.6313224517702</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R13" t="n">
         <v>166.7788770416304</v>
@@ -28415,13 +28415,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>79.79315073593983</v>
@@ -28454,16 +28454,16 @@
         <v>82.83975863332242</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3416087588246626</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="U15" t="n">
-        <v>27.22419180515487</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="V15" t="n">
-        <v>152.8466905342935</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="W15" t="n">
         <v>178.6313224517702</v>
@@ -28472,7 +28472,7 @@
         <v>178.6313224517702</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.6313224517702</v>
+        <v>48.32303808378384</v>
       </c>
     </row>
     <row r="16">
@@ -28485,10 +28485,10 @@
         <v>178.6313224517702</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="D16" t="n">
-        <v>178.6313224517702</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>178.6313224517702</v>
@@ -28500,13 +28500,13 @@
         <v>167.7571345188087</v>
       </c>
       <c r="H16" t="n">
-        <v>160.1480792967325</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="I16" t="n">
-        <v>148.4181228403268</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="J16" t="n">
-        <v>76.82634995341205</v>
+        <v>121.1373354105493</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28527,10 +28527,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>129.1043614573312</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R16" t="n">
-        <v>178.6313224517702</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S16" t="n">
         <v>178.6313224517702</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="C17" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="D17" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="E17" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="F17" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="G17" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="H17" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I17" t="n">
         <v>190.3778176099785</v>
@@ -28621,16 +28621,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V17" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="W17" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="X17" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="Y17" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
     </row>
     <row r="18">
@@ -28643,19 +28643,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0645880011306</v>
+        <v>38.85727668920114</v>
       </c>
       <c r="H18" t="n">
         <v>109.5415757500918</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>35.82328162999212</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>199.0404484318762</v>
@@ -28709,7 +28709,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>6.983856104252283</v>
       </c>
     </row>
     <row r="19">
@@ -28725,7 +28725,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.58072672426806</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>166.7788770416304</v>
@@ -28776,10 +28776,10 @@
         <v>226.9464342043221</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3062741834191</v>
+        <v>251.0760134741129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>53.43880365077592</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -28788,7 +28788,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.69029926368086</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="C20" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="D20" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="E20" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="F20" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="G20" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="H20" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I20" t="n">
         <v>190.3778176099785</v>
@@ -28858,16 +28858,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V20" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="W20" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="X20" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.2059350711957</v>
+        <v>300.2059350711955</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>121.9554996176072</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -28892,13 +28892,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.83975863332242</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0404484318762</v>
+        <v>128.8944430314833</v>
       </c>
       <c r="U21" t="n">
         <v>225.9230314782064</v>
       </c>
       <c r="V21" t="n">
-        <v>34.10174747637376</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>52.9961434878681</v>
+        <v>52.99614348786753</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>6.983856104252283</v>
       </c>
     </row>
     <row r="22">
@@ -28974,10 +28974,10 @@
         <v>167.7571345188087</v>
       </c>
       <c r="H22" t="n">
-        <v>160.1480792967325</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>148.4181228403268</v>
+        <v>74.63710175470102</v>
       </c>
       <c r="J22" t="n">
         <v>76.82634995341205</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.58072672426806</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>166.7788770416304</v>
@@ -29013,10 +29013,10 @@
         <v>226.9464342043221</v>
       </c>
       <c r="U22" t="n">
-        <v>87.60743451036757</v>
+        <v>286.3062741834191</v>
       </c>
       <c r="V22" t="n">
-        <v>150.3266558902532</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="C23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="D23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="E23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="F23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="G23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="H23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I23" t="n">
         <v>190.3778176099785</v>
@@ -29095,16 +29095,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="W23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="X23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
     </row>
     <row r="24">
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29165,19 +29165,19 @@
         <v>82.83975863332242</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T24" t="n">
-        <v>24.01104164340396</v>
+        <v>128.9254424257979</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9230314782064</v>
+        <v>27.22419180515432</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>52.99614348786753</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -29253,16 +29253,16 @@
         <v>286.3062741834191</v>
       </c>
       <c r="V25" t="n">
-        <v>150.3266558902532</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>87.82415866353949</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>123.8986679554629</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>19.88581367904271</v>
       </c>
     </row>
     <row r="26">
@@ -29317,7 +29317,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="Q26" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="R26" t="n">
         <v>149.0020902228565</v>
@@ -29363,13 +29363,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I27" t="n">
         <v>79.79315073593983</v>
@@ -29402,25 +29402,25 @@
         <v>82.83975863332242</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>41.56325686693393</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>149.0020902228565</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>6.035620223642127</v>
       </c>
     </row>
     <row r="28">
@@ -29457,7 +29457,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="K28" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29466,13 +29466,13 @@
         <v>149.0020902228565</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>19.57279359195338</v>
       </c>
       <c r="P28" t="n">
-        <v>19.5727935919535</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>149.0020902228565</v>
@@ -29533,7 +29533,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="J29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228567</v>
       </c>
       <c r="K29" t="n">
         <v>149.0020902228565</v>
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>92.27637069361698</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>53.63705135512205</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.83975863332242</v>
       </c>
       <c r="S30" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="X30" t="n">
-        <v>149.0020902228565</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29688,28 +29688,28 @@
         <v>149.0020902228565</v>
       </c>
       <c r="I31" t="n">
-        <v>148.4181228403268</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="J31" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>19.18617638730866</v>
       </c>
       <c r="O31" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="P31" t="n">
-        <v>19.77014376983925</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>149.0020902228565</v>
@@ -29773,7 +29773,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="K32" t="n">
-        <v>149.0020902228559</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="L32" t="n">
         <v>149.0020902228565</v>
@@ -29785,7 +29785,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="O32" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228571</v>
       </c>
       <c r="P32" t="n">
         <v>149.0020902228565</v>
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="C33" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -29837,16 +29837,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>81.89589313010899</v>
       </c>
       <c r="I33" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>6.035620223641956</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="Y33" t="n">
         <v>149.0020902228565</v>
@@ -29928,25 +29928,25 @@
         <v>149.0020902228565</v>
       </c>
       <c r="J34" t="n">
-        <v>76.82634995341205</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="K34" t="n">
-        <v>91.36191665675329</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>19.18617638731034</v>
       </c>
       <c r="Q34" t="n">
         <v>149.0020902228565</v>
@@ -29983,37 +29983,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="C35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="D35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="E35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="F35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="G35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="H35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="I35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="J35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="K35" t="n">
-        <v>201.4325717917744</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>23.20984981392729</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>117.1219416806167</v>
+        <v>136.0397791457467</v>
       </c>
       <c r="S35" t="n">
-        <v>197.1405594429799</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y35" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="36">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30110,22 +30110,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.83975863332242</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.0404484318762</v>
       </c>
       <c r="U36" t="n">
-        <v>121.4698701898567</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>59.20941703548084</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>151.1461264646912</v>
       </c>
       <c r="G37" t="n">
         <v>167.7571345188087</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5.725078441761269</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>166.7788770416304</v>
       </c>
       <c r="S37" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T37" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U37" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V37" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W37" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y37" t="n">
-        <v>201.4325717917744</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="38">
@@ -30241,13 +30241,13 @@
         <v>201.4325717917745</v>
       </c>
       <c r="I38" t="n">
-        <v>190.3778176099785</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,19 +30259,19 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>147.0945333275432</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>201.4325717917745</v>
+        <v>140.3317914945422</v>
       </c>
       <c r="S38" t="n">
-        <v>201.4325717917745</v>
+        <v>197.1405594429799</v>
       </c>
       <c r="T38" t="n">
         <v>201.4325717917745</v>
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>109.3720248841139</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30353,7 +30353,7 @@
         <v>166.5021842555528</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0404484318762</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30362,10 +30362,10 @@
         <v>201.4325717917745</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>106.9799015242153</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30390,10 +30390,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>151.1461264646917</v>
       </c>
       <c r="G40" t="n">
-        <v>173.4822129605691</v>
+        <v>167.7571345188087</v>
       </c>
       <c r="H40" t="n">
         <v>160.1480792967325</v>
@@ -30484,16 +30484,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="L41" t="n">
-        <v>141.9124834003632</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>185.8076198892766</v>
       </c>
       <c r="N41" t="n">
-        <v>195.5598675371588</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>201.4325717917745</v>
+        <v>151.6647310482452</v>
       </c>
       <c r="S41" t="n">
         <v>201.4325717917745</v>
@@ -30545,16 +30545,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.83975863332242</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>70.03516486353422</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,10 +30602,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>144.6150688037754</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="43">
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>185.5570586236973</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>154.3405514599724</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -30718,7 +30718,7 @@
         <v>190.3778176099785</v>
       </c>
       <c r="J44" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,10 +30739,10 @@
         <v>201.4325717917745</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="R44" t="n">
-        <v>147.0945333275439</v>
+        <v>147.0945333275437</v>
       </c>
       <c r="S44" t="n">
         <v>201.4325717917745</v>
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30785,10 +30785,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>42.42687766291701</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -30824,22 +30824,22 @@
         <v>82.83975863332242</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>115.8370053243668</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30867,13 +30867,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>173.4822129605691</v>
+        <v>167.7571345188087</v>
       </c>
       <c r="H46" t="n">
         <v>160.1480792967325</v>
       </c>
       <c r="I46" t="n">
-        <v>148.4181228403268</v>
+        <v>154.1432012820872</v>
       </c>
       <c r="J46" t="n">
         <v>76.82634995341205</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5213169563692985</v>
+        <v>0.5213169563692986</v>
       </c>
       <c r="H11" t="n">
-        <v>5.33893727941708</v>
+        <v>5.338937279417081</v>
       </c>
       <c r="I11" t="n">
         <v>20.0980719604274</v>
       </c>
       <c r="J11" t="n">
-        <v>44.24612502564879</v>
+        <v>44.2461250256488</v>
       </c>
       <c r="K11" t="n">
-        <v>66.31347178876121</v>
+        <v>66.31347178876122</v>
       </c>
       <c r="L11" t="n">
-        <v>82.26772559224814</v>
+        <v>82.26772559224817</v>
       </c>
       <c r="M11" t="n">
-        <v>91.53869601508066</v>
+        <v>91.53869601508067</v>
       </c>
       <c r="N11" t="n">
-        <v>93.01988781736493</v>
+        <v>93.01988781736495</v>
       </c>
       <c r="O11" t="n">
-        <v>87.83604233246771</v>
+        <v>87.83604233246773</v>
       </c>
       <c r="P11" t="n">
-        <v>74.96602997210064</v>
+        <v>74.96602997210066</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.29636647212512</v>
+        <v>56.29636647212514</v>
       </c>
       <c r="R11" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053298</v>
       </c>
       <c r="S11" t="n">
         <v>11.8795101432654</v>
       </c>
       <c r="T11" t="n">
-        <v>2.282064976506605</v>
+        <v>2.282064976506606</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04170535650954387</v>
+        <v>0.04170535650954389</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,37 +31829,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2789291620800452</v>
+        <v>0.2789291620800453</v>
       </c>
       <c r="H12" t="n">
-        <v>2.693868486404647</v>
+        <v>2.693868486404648</v>
       </c>
       <c r="I12" t="n">
-        <v>9.603482115475241</v>
+        <v>9.603482115475243</v>
       </c>
       <c r="J12" t="n">
-        <v>26.3526889489748</v>
+        <v>26.35268894897481</v>
       </c>
       <c r="K12" t="n">
-        <v>45.04094280833782</v>
+        <v>45.04094280833783</v>
       </c>
       <c r="L12" t="n">
-        <v>60.56310600338876</v>
+        <v>60.56310600338877</v>
       </c>
       <c r="M12" t="n">
-        <v>70.67428812879038</v>
+        <v>70.67428812879039</v>
       </c>
       <c r="N12" t="n">
-        <v>72.54482623765175</v>
+        <v>72.54482623765176</v>
       </c>
       <c r="O12" t="n">
-        <v>66.36434322524653</v>
+        <v>66.36434322524654</v>
       </c>
       <c r="P12" t="n">
-        <v>53.26323622210968</v>
+        <v>53.2632362221097</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.60506286481419</v>
+        <v>35.6050628648142</v>
       </c>
       <c r="R12" t="n">
         <v>17.31807551932071</v>
@@ -31871,7 +31871,7 @@
         <v>1.124280262945445</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842404</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,16 +31914,16 @@
         <v>2.079093210707085</v>
       </c>
       <c r="I13" t="n">
-        <v>7.032352086931528</v>
+        <v>7.03235208693153</v>
       </c>
       <c r="J13" t="n">
-        <v>16.53283016326072</v>
+        <v>16.53283016326073</v>
       </c>
       <c r="K13" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298214</v>
       </c>
       <c r="L13" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943114</v>
       </c>
       <c r="M13" t="n">
         <v>36.65624154623951</v>
@@ -31932,7 +31932,7 @@
         <v>35.78463805299833</v>
       </c>
       <c r="O13" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344965</v>
       </c>
       <c r="P13" t="n">
         <v>28.28247042458797</v>
@@ -31941,16 +31941,16 @@
         <v>19.58131652742633</v>
       </c>
       <c r="R13" t="n">
-        <v>10.51451433553909</v>
+        <v>10.5145143355391</v>
       </c>
       <c r="S13" t="n">
         <v>4.075277796447319</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9991552239594367</v>
+        <v>0.9991552239594369</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01275517307182261</v>
+        <v>0.01275517307182262</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5213169563692985</v>
+        <v>0.5213169563692986</v>
       </c>
       <c r="H14" t="n">
-        <v>5.33893727941708</v>
+        <v>5.338937279417081</v>
       </c>
       <c r="I14" t="n">
         <v>20.0980719604274</v>
       </c>
       <c r="J14" t="n">
-        <v>44.24612502564879</v>
+        <v>44.2461250256488</v>
       </c>
       <c r="K14" t="n">
-        <v>66.31347178876121</v>
+        <v>66.31347178876122</v>
       </c>
       <c r="L14" t="n">
-        <v>82.26772559224814</v>
+        <v>82.26772559224817</v>
       </c>
       <c r="M14" t="n">
-        <v>91.53869601508066</v>
+        <v>91.53869601508067</v>
       </c>
       <c r="N14" t="n">
-        <v>93.01988781736493</v>
+        <v>93.01988781736495</v>
       </c>
       <c r="O14" t="n">
-        <v>87.83604233246771</v>
+        <v>87.83604233246773</v>
       </c>
       <c r="P14" t="n">
-        <v>74.96602997210064</v>
+        <v>74.96602997210066</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.29636647212512</v>
+        <v>56.29636647212514</v>
       </c>
       <c r="R14" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053298</v>
       </c>
       <c r="S14" t="n">
         <v>11.8795101432654</v>
       </c>
       <c r="T14" t="n">
-        <v>2.282064976506605</v>
+        <v>2.282064976506606</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04170535650954387</v>
+        <v>0.04170535650954389</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2789291620800452</v>
+        <v>0.2789291620800453</v>
       </c>
       <c r="H15" t="n">
-        <v>2.693868486404647</v>
+        <v>2.693868486404648</v>
       </c>
       <c r="I15" t="n">
-        <v>9.603482115475241</v>
+        <v>9.603482115475243</v>
       </c>
       <c r="J15" t="n">
-        <v>26.3526889489748</v>
+        <v>26.35268894897481</v>
       </c>
       <c r="K15" t="n">
-        <v>45.04094280833782</v>
+        <v>45.04094280833783</v>
       </c>
       <c r="L15" t="n">
-        <v>60.56310600338876</v>
+        <v>60.56310600338877</v>
       </c>
       <c r="M15" t="n">
-        <v>70.67428812879038</v>
+        <v>70.67428812879039</v>
       </c>
       <c r="N15" t="n">
-        <v>72.54482623765175</v>
+        <v>72.54482623765176</v>
       </c>
       <c r="O15" t="n">
-        <v>66.36434322524653</v>
+        <v>66.36434322524654</v>
       </c>
       <c r="P15" t="n">
-        <v>53.26323622210968</v>
+        <v>53.2632362221097</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.60506286481419</v>
+        <v>35.6050628648142</v>
       </c>
       <c r="R15" t="n">
         <v>17.31807551932071</v>
@@ -32108,7 +32108,7 @@
         <v>1.124280262945445</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842404</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,16 +32151,16 @@
         <v>2.079093210707085</v>
       </c>
       <c r="I16" t="n">
-        <v>7.032352086931528</v>
+        <v>7.03235208693153</v>
       </c>
       <c r="J16" t="n">
-        <v>16.53283016326072</v>
+        <v>16.53283016326073</v>
       </c>
       <c r="K16" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298214</v>
       </c>
       <c r="L16" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943114</v>
       </c>
       <c r="M16" t="n">
         <v>36.65624154623951</v>
@@ -32169,7 +32169,7 @@
         <v>35.78463805299833</v>
       </c>
       <c r="O16" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344965</v>
       </c>
       <c r="P16" t="n">
         <v>28.28247042458797</v>
@@ -32178,16 +32178,16 @@
         <v>19.58131652742633</v>
       </c>
       <c r="R16" t="n">
-        <v>10.51451433553909</v>
+        <v>10.5145143355391</v>
       </c>
       <c r="S16" t="n">
         <v>4.075277796447319</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9991552239594367</v>
+        <v>0.9991552239594369</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01275517307182261</v>
+        <v>0.01275517307182262</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5213169563692985</v>
+        <v>0.5213169563692986</v>
       </c>
       <c r="H17" t="n">
-        <v>5.33893727941708</v>
+        <v>5.338937279417081</v>
       </c>
       <c r="I17" t="n">
         <v>20.0980719604274</v>
       </c>
       <c r="J17" t="n">
-        <v>44.24612502564879</v>
+        <v>44.2461250256488</v>
       </c>
       <c r="K17" t="n">
-        <v>66.31347178876121</v>
+        <v>66.31347178876122</v>
       </c>
       <c r="L17" t="n">
-        <v>82.26772559224814</v>
+        <v>82.26772559224817</v>
       </c>
       <c r="M17" t="n">
-        <v>91.53869601508066</v>
+        <v>91.53869601508067</v>
       </c>
       <c r="N17" t="n">
-        <v>93.01988781736493</v>
+        <v>93.01988781736495</v>
       </c>
       <c r="O17" t="n">
-        <v>87.83604233246771</v>
+        <v>87.83604233246773</v>
       </c>
       <c r="P17" t="n">
-        <v>74.96602997210064</v>
+        <v>74.96602997210066</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.29636647212512</v>
+        <v>56.29636647212514</v>
       </c>
       <c r="R17" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053298</v>
       </c>
       <c r="S17" t="n">
         <v>11.8795101432654</v>
       </c>
       <c r="T17" t="n">
-        <v>2.282064976506605</v>
+        <v>2.282064976506606</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04170535650954387</v>
+        <v>0.04170535650954389</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2789291620800452</v>
+        <v>0.2789291620800453</v>
       </c>
       <c r="H18" t="n">
-        <v>2.693868486404647</v>
+        <v>2.693868486404648</v>
       </c>
       <c r="I18" t="n">
-        <v>9.603482115475241</v>
+        <v>9.603482115475243</v>
       </c>
       <c r="J18" t="n">
-        <v>26.3526889489748</v>
+        <v>26.35268894897481</v>
       </c>
       <c r="K18" t="n">
-        <v>45.04094280833782</v>
+        <v>45.04094280833783</v>
       </c>
       <c r="L18" t="n">
-        <v>60.56310600338876</v>
+        <v>60.56310600338877</v>
       </c>
       <c r="M18" t="n">
-        <v>70.67428812879038</v>
+        <v>70.67428812879039</v>
       </c>
       <c r="N18" t="n">
-        <v>72.54482623765175</v>
+        <v>72.54482623765176</v>
       </c>
       <c r="O18" t="n">
-        <v>66.36434322524653</v>
+        <v>66.36434322524654</v>
       </c>
       <c r="P18" t="n">
-        <v>53.26323622210968</v>
+        <v>53.2632362221097</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.60506286481419</v>
+        <v>35.6050628648142</v>
       </c>
       <c r="R18" t="n">
         <v>17.31807551932071</v>
@@ -32345,7 +32345,7 @@
         <v>1.124280262945445</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842404</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,16 +32388,16 @@
         <v>2.079093210707085</v>
       </c>
       <c r="I19" t="n">
-        <v>7.032352086931528</v>
+        <v>7.03235208693153</v>
       </c>
       <c r="J19" t="n">
-        <v>16.53283016326072</v>
+        <v>16.53283016326073</v>
       </c>
       <c r="K19" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298214</v>
       </c>
       <c r="L19" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943114</v>
       </c>
       <c r="M19" t="n">
         <v>36.65624154623951</v>
@@ -32406,7 +32406,7 @@
         <v>35.78463805299833</v>
       </c>
       <c r="O19" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344965</v>
       </c>
       <c r="P19" t="n">
         <v>28.28247042458797</v>
@@ -32415,16 +32415,16 @@
         <v>19.58131652742633</v>
       </c>
       <c r="R19" t="n">
-        <v>10.51451433553909</v>
+        <v>10.5145143355391</v>
       </c>
       <c r="S19" t="n">
         <v>4.075277796447319</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9991552239594367</v>
+        <v>0.9991552239594369</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01275517307182261</v>
+        <v>0.01275517307182262</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5213169563692985</v>
+        <v>0.5213169563692986</v>
       </c>
       <c r="H20" t="n">
-        <v>5.33893727941708</v>
+        <v>5.338937279417081</v>
       </c>
       <c r="I20" t="n">
         <v>20.0980719604274</v>
       </c>
       <c r="J20" t="n">
-        <v>44.24612502564879</v>
+        <v>44.2461250256488</v>
       </c>
       <c r="K20" t="n">
-        <v>66.31347178876121</v>
+        <v>66.31347178876122</v>
       </c>
       <c r="L20" t="n">
-        <v>82.26772559224814</v>
+        <v>82.26772559224817</v>
       </c>
       <c r="M20" t="n">
-        <v>91.53869601508066</v>
+        <v>91.53869601508067</v>
       </c>
       <c r="N20" t="n">
-        <v>93.01988781736493</v>
+        <v>93.01988781736495</v>
       </c>
       <c r="O20" t="n">
-        <v>87.83604233246771</v>
+        <v>87.83604233246773</v>
       </c>
       <c r="P20" t="n">
-        <v>74.96602997210064</v>
+        <v>74.96602997210066</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.29636647212512</v>
+        <v>56.29636647212514</v>
       </c>
       <c r="R20" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053298</v>
       </c>
       <c r="S20" t="n">
         <v>11.8795101432654</v>
       </c>
       <c r="T20" t="n">
-        <v>2.282064976506605</v>
+        <v>2.282064976506606</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04170535650954387</v>
+        <v>0.04170535650954389</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,37 +32540,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2789291620800452</v>
+        <v>0.2789291620800453</v>
       </c>
       <c r="H21" t="n">
-        <v>2.693868486404647</v>
+        <v>2.693868486404648</v>
       </c>
       <c r="I21" t="n">
-        <v>9.603482115475241</v>
+        <v>9.603482115475243</v>
       </c>
       <c r="J21" t="n">
-        <v>26.3526889489748</v>
+        <v>26.35268894897481</v>
       </c>
       <c r="K21" t="n">
-        <v>45.04094280833782</v>
+        <v>45.04094280833783</v>
       </c>
       <c r="L21" t="n">
-        <v>60.56310600338876</v>
+        <v>60.56310600338877</v>
       </c>
       <c r="M21" t="n">
-        <v>70.67428812879038</v>
+        <v>70.67428812879039</v>
       </c>
       <c r="N21" t="n">
-        <v>72.54482623765175</v>
+        <v>72.54482623765176</v>
       </c>
       <c r="O21" t="n">
-        <v>66.36434322524653</v>
+        <v>66.36434322524654</v>
       </c>
       <c r="P21" t="n">
-        <v>53.26323622210968</v>
+        <v>53.2632362221097</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.60506286481419</v>
+        <v>35.6050628648142</v>
       </c>
       <c r="R21" t="n">
         <v>17.31807551932071</v>
@@ -32582,7 +32582,7 @@
         <v>1.124280262945445</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842404</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,16 +32625,16 @@
         <v>2.079093210707085</v>
       </c>
       <c r="I22" t="n">
-        <v>7.032352086931528</v>
+        <v>7.03235208693153</v>
       </c>
       <c r="J22" t="n">
-        <v>16.53283016326072</v>
+        <v>16.53283016326073</v>
       </c>
       <c r="K22" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298214</v>
       </c>
       <c r="L22" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943114</v>
       </c>
       <c r="M22" t="n">
         <v>36.65624154623951</v>
@@ -32643,7 +32643,7 @@
         <v>35.78463805299833</v>
       </c>
       <c r="O22" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344965</v>
       </c>
       <c r="P22" t="n">
         <v>28.28247042458797</v>
@@ -32652,16 +32652,16 @@
         <v>19.58131652742633</v>
       </c>
       <c r="R22" t="n">
-        <v>10.51451433553909</v>
+        <v>10.5145143355391</v>
       </c>
       <c r="S22" t="n">
         <v>4.075277796447319</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9991552239594367</v>
+        <v>0.9991552239594369</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01275517307182261</v>
+        <v>0.01275517307182262</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5213169563692985</v>
+        <v>0.5213169563692986</v>
       </c>
       <c r="H23" t="n">
-        <v>5.33893727941708</v>
+        <v>5.338937279417081</v>
       </c>
       <c r="I23" t="n">
         <v>20.0980719604274</v>
       </c>
       <c r="J23" t="n">
-        <v>44.24612502564879</v>
+        <v>44.2461250256488</v>
       </c>
       <c r="K23" t="n">
-        <v>66.31347178876121</v>
+        <v>66.31347178876122</v>
       </c>
       <c r="L23" t="n">
-        <v>82.26772559224814</v>
+        <v>82.26772559224817</v>
       </c>
       <c r="M23" t="n">
-        <v>91.53869601508066</v>
+        <v>91.53869601508067</v>
       </c>
       <c r="N23" t="n">
-        <v>93.01988781736493</v>
+        <v>93.01988781736495</v>
       </c>
       <c r="O23" t="n">
-        <v>87.83604233246771</v>
+        <v>87.83604233246773</v>
       </c>
       <c r="P23" t="n">
-        <v>74.96602997210064</v>
+        <v>74.96602997210066</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.29636647212512</v>
+        <v>56.29636647212514</v>
       </c>
       <c r="R23" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053298</v>
       </c>
       <c r="S23" t="n">
         <v>11.8795101432654</v>
       </c>
       <c r="T23" t="n">
-        <v>2.282064976506605</v>
+        <v>2.282064976506606</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04170535650954387</v>
+        <v>0.04170535650954389</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,37 +32777,37 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2789291620800452</v>
+        <v>0.2789291620800453</v>
       </c>
       <c r="H24" t="n">
-        <v>2.693868486404647</v>
+        <v>2.693868486404648</v>
       </c>
       <c r="I24" t="n">
-        <v>9.603482115475241</v>
+        <v>9.603482115475243</v>
       </c>
       <c r="J24" t="n">
-        <v>26.3526889489748</v>
+        <v>26.35268894897481</v>
       </c>
       <c r="K24" t="n">
-        <v>45.04094280833782</v>
+        <v>45.04094280833783</v>
       </c>
       <c r="L24" t="n">
-        <v>60.56310600338876</v>
+        <v>60.56310600338877</v>
       </c>
       <c r="M24" t="n">
-        <v>70.67428812879038</v>
+        <v>70.67428812879039</v>
       </c>
       <c r="N24" t="n">
-        <v>72.54482623765175</v>
+        <v>72.54482623765176</v>
       </c>
       <c r="O24" t="n">
-        <v>66.36434322524653</v>
+        <v>66.36434322524654</v>
       </c>
       <c r="P24" t="n">
-        <v>53.26323622210968</v>
+        <v>53.2632362221097</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.60506286481419</v>
+        <v>35.6050628648142</v>
       </c>
       <c r="R24" t="n">
         <v>17.31807551932071</v>
@@ -32819,7 +32819,7 @@
         <v>1.124280262945445</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842404</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,16 +32862,16 @@
         <v>2.079093210707085</v>
       </c>
       <c r="I25" t="n">
-        <v>7.032352086931528</v>
+        <v>7.03235208693153</v>
       </c>
       <c r="J25" t="n">
-        <v>16.53283016326072</v>
+        <v>16.53283016326073</v>
       </c>
       <c r="K25" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298214</v>
       </c>
       <c r="L25" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943114</v>
       </c>
       <c r="M25" t="n">
         <v>36.65624154623951</v>
@@ -32880,7 +32880,7 @@
         <v>35.78463805299833</v>
       </c>
       <c r="O25" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344965</v>
       </c>
       <c r="P25" t="n">
         <v>28.28247042458797</v>
@@ -32889,16 +32889,16 @@
         <v>19.58131652742633</v>
       </c>
       <c r="R25" t="n">
-        <v>10.51451433553909</v>
+        <v>10.5145143355391</v>
       </c>
       <c r="S25" t="n">
         <v>4.075277796447319</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9991552239594367</v>
+        <v>0.9991552239594369</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01275517307182261</v>
+        <v>0.01275517307182262</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5213169563692985</v>
+        <v>0.5213169563692986</v>
       </c>
       <c r="H26" t="n">
-        <v>5.33893727941708</v>
+        <v>5.338937279417081</v>
       </c>
       <c r="I26" t="n">
         <v>20.0980719604274</v>
       </c>
       <c r="J26" t="n">
-        <v>44.24612502564879</v>
+        <v>44.2461250256488</v>
       </c>
       <c r="K26" t="n">
-        <v>66.31347178876121</v>
+        <v>66.31347178876122</v>
       </c>
       <c r="L26" t="n">
-        <v>82.26772559224814</v>
+        <v>82.26772559224817</v>
       </c>
       <c r="M26" t="n">
-        <v>91.53869601508066</v>
+        <v>91.53869601508067</v>
       </c>
       <c r="N26" t="n">
-        <v>93.01988781736493</v>
+        <v>93.01988781736495</v>
       </c>
       <c r="O26" t="n">
-        <v>87.83604233246771</v>
+        <v>87.83604233246773</v>
       </c>
       <c r="P26" t="n">
-        <v>74.96602997210064</v>
+        <v>74.96602997210066</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.29636647212512</v>
+        <v>56.29636647212514</v>
       </c>
       <c r="R26" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053298</v>
       </c>
       <c r="S26" t="n">
         <v>11.8795101432654</v>
       </c>
       <c r="T26" t="n">
-        <v>2.282064976506605</v>
+        <v>2.282064976506606</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04170535650954387</v>
+        <v>0.04170535650954389</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,37 +33014,37 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2789291620800452</v>
+        <v>0.2789291620800453</v>
       </c>
       <c r="H27" t="n">
-        <v>2.693868486404647</v>
+        <v>2.693868486404648</v>
       </c>
       <c r="I27" t="n">
-        <v>9.603482115475241</v>
+        <v>9.603482115475243</v>
       </c>
       <c r="J27" t="n">
-        <v>26.3526889489748</v>
+        <v>26.35268894897481</v>
       </c>
       <c r="K27" t="n">
-        <v>45.04094280833782</v>
+        <v>45.04094280833783</v>
       </c>
       <c r="L27" t="n">
-        <v>60.56310600338876</v>
+        <v>60.56310600338877</v>
       </c>
       <c r="M27" t="n">
-        <v>70.67428812879038</v>
+        <v>70.67428812879039</v>
       </c>
       <c r="N27" t="n">
-        <v>72.54482623765175</v>
+        <v>72.54482623765176</v>
       </c>
       <c r="O27" t="n">
-        <v>66.36434322524653</v>
+        <v>66.36434322524654</v>
       </c>
       <c r="P27" t="n">
-        <v>53.26323622210968</v>
+        <v>53.2632362221097</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.60506286481419</v>
+        <v>35.6050628648142</v>
       </c>
       <c r="R27" t="n">
         <v>17.31807551932071</v>
@@ -33056,7 +33056,7 @@
         <v>1.124280262945445</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842404</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,16 +33099,16 @@
         <v>2.079093210707085</v>
       </c>
       <c r="I28" t="n">
-        <v>7.032352086931528</v>
+        <v>7.03235208693153</v>
       </c>
       <c r="J28" t="n">
-        <v>16.53283016326072</v>
+        <v>16.53283016326073</v>
       </c>
       <c r="K28" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298214</v>
       </c>
       <c r="L28" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943114</v>
       </c>
       <c r="M28" t="n">
         <v>36.65624154623951</v>
@@ -33117,7 +33117,7 @@
         <v>35.78463805299833</v>
       </c>
       <c r="O28" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344965</v>
       </c>
       <c r="P28" t="n">
         <v>28.28247042458797</v>
@@ -33126,16 +33126,16 @@
         <v>19.58131652742633</v>
       </c>
       <c r="R28" t="n">
-        <v>10.51451433553909</v>
+        <v>10.5145143355391</v>
       </c>
       <c r="S28" t="n">
         <v>4.075277796447319</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9991552239594367</v>
+        <v>0.9991552239594369</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01275517307182261</v>
+        <v>0.01275517307182262</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5213169563692985</v>
+        <v>0.5213169563692986</v>
       </c>
       <c r="H29" t="n">
-        <v>5.33893727941708</v>
+        <v>5.338937279417081</v>
       </c>
       <c r="I29" t="n">
         <v>20.0980719604274</v>
       </c>
       <c r="J29" t="n">
-        <v>44.24612502564879</v>
+        <v>44.2461250256488</v>
       </c>
       <c r="K29" t="n">
-        <v>66.31347178876121</v>
+        <v>66.31347178876122</v>
       </c>
       <c r="L29" t="n">
-        <v>82.26772559224814</v>
+        <v>82.26772559224817</v>
       </c>
       <c r="M29" t="n">
-        <v>91.53869601508066</v>
+        <v>91.53869601508067</v>
       </c>
       <c r="N29" t="n">
-        <v>93.01988781736493</v>
+        <v>93.01988781736495</v>
       </c>
       <c r="O29" t="n">
-        <v>87.83604233246771</v>
+        <v>87.83604233246773</v>
       </c>
       <c r="P29" t="n">
-        <v>74.96602997210064</v>
+        <v>74.96602997210066</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.29636647212512</v>
+        <v>56.29636647212514</v>
       </c>
       <c r="R29" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053298</v>
       </c>
       <c r="S29" t="n">
         <v>11.8795101432654</v>
       </c>
       <c r="T29" t="n">
-        <v>2.282064976506605</v>
+        <v>2.282064976506606</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04170535650954387</v>
+        <v>0.04170535650954389</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,37 +33251,37 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2789291620800452</v>
+        <v>0.2789291620800453</v>
       </c>
       <c r="H30" t="n">
-        <v>2.693868486404647</v>
+        <v>2.693868486404648</v>
       </c>
       <c r="I30" t="n">
-        <v>9.603482115475241</v>
+        <v>9.603482115475243</v>
       </c>
       <c r="J30" t="n">
-        <v>26.3526889489748</v>
+        <v>26.35268894897481</v>
       </c>
       <c r="K30" t="n">
-        <v>45.04094280833782</v>
+        <v>45.04094280833783</v>
       </c>
       <c r="L30" t="n">
-        <v>60.56310600338876</v>
+        <v>60.56310600338877</v>
       </c>
       <c r="M30" t="n">
-        <v>70.67428812879038</v>
+        <v>70.67428812879039</v>
       </c>
       <c r="N30" t="n">
-        <v>72.54482623765175</v>
+        <v>72.54482623765176</v>
       </c>
       <c r="O30" t="n">
-        <v>66.36434322524653</v>
+        <v>66.36434322524654</v>
       </c>
       <c r="P30" t="n">
-        <v>53.26323622210968</v>
+        <v>53.2632362221097</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.60506286481419</v>
+        <v>35.6050628648142</v>
       </c>
       <c r="R30" t="n">
         <v>17.31807551932071</v>
@@ -33293,7 +33293,7 @@
         <v>1.124280262945445</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842404</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,16 +33336,16 @@
         <v>2.079093210707085</v>
       </c>
       <c r="I31" t="n">
-        <v>7.032352086931528</v>
+        <v>7.03235208693153</v>
       </c>
       <c r="J31" t="n">
-        <v>16.53283016326072</v>
+        <v>16.53283016326073</v>
       </c>
       <c r="K31" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298214</v>
       </c>
       <c r="L31" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943114</v>
       </c>
       <c r="M31" t="n">
         <v>36.65624154623951</v>
@@ -33354,7 +33354,7 @@
         <v>35.78463805299833</v>
       </c>
       <c r="O31" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344965</v>
       </c>
       <c r="P31" t="n">
         <v>28.28247042458797</v>
@@ -33363,16 +33363,16 @@
         <v>19.58131652742633</v>
       </c>
       <c r="R31" t="n">
-        <v>10.51451433553909</v>
+        <v>10.5145143355391</v>
       </c>
       <c r="S31" t="n">
         <v>4.075277796447319</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9991552239594367</v>
+        <v>0.9991552239594369</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01275517307182261</v>
+        <v>0.01275517307182262</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5213169563692985</v>
+        <v>0.5213169563692986</v>
       </c>
       <c r="H32" t="n">
-        <v>5.33893727941708</v>
+        <v>5.338937279417081</v>
       </c>
       <c r="I32" t="n">
         <v>20.0980719604274</v>
       </c>
       <c r="J32" t="n">
-        <v>44.24612502564879</v>
+        <v>44.2461250256488</v>
       </c>
       <c r="K32" t="n">
-        <v>66.31347178876121</v>
+        <v>66.31347178876122</v>
       </c>
       <c r="L32" t="n">
-        <v>82.26772559224814</v>
+        <v>82.26772559224817</v>
       </c>
       <c r="M32" t="n">
-        <v>91.53869601508066</v>
+        <v>91.53869601508067</v>
       </c>
       <c r="N32" t="n">
-        <v>93.01988781736493</v>
+        <v>93.01988781736495</v>
       </c>
       <c r="O32" t="n">
-        <v>87.83604233246771</v>
+        <v>87.83604233246773</v>
       </c>
       <c r="P32" t="n">
-        <v>74.96602997210064</v>
+        <v>74.96602997210066</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.29636647212512</v>
+        <v>56.29636647212514</v>
       </c>
       <c r="R32" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053298</v>
       </c>
       <c r="S32" t="n">
         <v>11.8795101432654</v>
       </c>
       <c r="T32" t="n">
-        <v>2.282064976506605</v>
+        <v>2.282064976506606</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04170535650954387</v>
+        <v>0.04170535650954389</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,37 +33488,37 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2789291620800452</v>
+        <v>0.2789291620800453</v>
       </c>
       <c r="H33" t="n">
-        <v>2.693868486404647</v>
+        <v>2.693868486404648</v>
       </c>
       <c r="I33" t="n">
-        <v>9.603482115475241</v>
+        <v>9.603482115475243</v>
       </c>
       <c r="J33" t="n">
-        <v>26.3526889489748</v>
+        <v>26.35268894897481</v>
       </c>
       <c r="K33" t="n">
-        <v>45.04094280833782</v>
+        <v>45.04094280833783</v>
       </c>
       <c r="L33" t="n">
-        <v>60.56310600338876</v>
+        <v>60.56310600338877</v>
       </c>
       <c r="M33" t="n">
-        <v>70.67428812879038</v>
+        <v>70.67428812879039</v>
       </c>
       <c r="N33" t="n">
-        <v>72.54482623765175</v>
+        <v>72.54482623765176</v>
       </c>
       <c r="O33" t="n">
-        <v>66.36434322524653</v>
+        <v>66.36434322524654</v>
       </c>
       <c r="P33" t="n">
-        <v>53.26323622210968</v>
+        <v>53.2632362221097</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.60506286481419</v>
+        <v>35.6050628648142</v>
       </c>
       <c r="R33" t="n">
         <v>17.31807551932071</v>
@@ -33530,7 +33530,7 @@
         <v>1.124280262945445</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842404</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,16 +33573,16 @@
         <v>2.079093210707085</v>
       </c>
       <c r="I34" t="n">
-        <v>7.032352086931528</v>
+        <v>7.03235208693153</v>
       </c>
       <c r="J34" t="n">
-        <v>16.53283016326072</v>
+        <v>16.53283016326073</v>
       </c>
       <c r="K34" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298214</v>
       </c>
       <c r="L34" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943114</v>
       </c>
       <c r="M34" t="n">
         <v>36.65624154623951</v>
@@ -33591,7 +33591,7 @@
         <v>35.78463805299833</v>
       </c>
       <c r="O34" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344965</v>
       </c>
       <c r="P34" t="n">
         <v>28.28247042458797</v>
@@ -33600,16 +33600,16 @@
         <v>19.58131652742633</v>
       </c>
       <c r="R34" t="n">
-        <v>10.51451433553909</v>
+        <v>10.5145143355391</v>
       </c>
       <c r="S34" t="n">
         <v>4.075277796447319</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9991552239594367</v>
+        <v>0.9991552239594369</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01275517307182261</v>
+        <v>0.01275517307182262</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5213169563692985</v>
+        <v>0.5213169563692986</v>
       </c>
       <c r="H35" t="n">
-        <v>5.33893727941708</v>
+        <v>5.338937279417081</v>
       </c>
       <c r="I35" t="n">
         <v>20.0980719604274</v>
       </c>
       <c r="J35" t="n">
-        <v>44.24612502564879</v>
+        <v>44.2461250256488</v>
       </c>
       <c r="K35" t="n">
-        <v>66.31347178876121</v>
+        <v>66.31347178876122</v>
       </c>
       <c r="L35" t="n">
-        <v>82.26772559224814</v>
+        <v>82.26772559224817</v>
       </c>
       <c r="M35" t="n">
-        <v>91.53869601508066</v>
+        <v>91.53869601508067</v>
       </c>
       <c r="N35" t="n">
-        <v>93.01988781736493</v>
+        <v>93.01988781736495</v>
       </c>
       <c r="O35" t="n">
-        <v>87.83604233246771</v>
+        <v>87.83604233246773</v>
       </c>
       <c r="P35" t="n">
-        <v>74.96602997210064</v>
+        <v>74.96602997210066</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.29636647212512</v>
+        <v>56.29636647212514</v>
       </c>
       <c r="R35" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053298</v>
       </c>
       <c r="S35" t="n">
         <v>11.8795101432654</v>
       </c>
       <c r="T35" t="n">
-        <v>2.282064976506605</v>
+        <v>2.282064976506606</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04170535650954387</v>
+        <v>0.04170535650954389</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,37 +33725,37 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2789291620800452</v>
+        <v>0.2789291620800453</v>
       </c>
       <c r="H36" t="n">
-        <v>2.693868486404647</v>
+        <v>2.693868486404648</v>
       </c>
       <c r="I36" t="n">
-        <v>9.603482115475241</v>
+        <v>9.603482115475243</v>
       </c>
       <c r="J36" t="n">
-        <v>26.3526889489748</v>
+        <v>26.35268894897481</v>
       </c>
       <c r="K36" t="n">
-        <v>45.04094280833782</v>
+        <v>45.04094280833783</v>
       </c>
       <c r="L36" t="n">
-        <v>60.56310600338876</v>
+        <v>60.56310600338877</v>
       </c>
       <c r="M36" t="n">
-        <v>70.67428812879038</v>
+        <v>70.67428812879039</v>
       </c>
       <c r="N36" t="n">
-        <v>72.54482623765175</v>
+        <v>72.54482623765176</v>
       </c>
       <c r="O36" t="n">
-        <v>66.36434322524653</v>
+        <v>66.36434322524654</v>
       </c>
       <c r="P36" t="n">
-        <v>53.26323622210968</v>
+        <v>53.2632362221097</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.60506286481419</v>
+        <v>35.6050628648142</v>
       </c>
       <c r="R36" t="n">
         <v>17.31807551932071</v>
@@ -33767,7 +33767,7 @@
         <v>1.124280262945445</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842404</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,16 +33810,16 @@
         <v>2.079093210707085</v>
       </c>
       <c r="I37" t="n">
-        <v>7.032352086931528</v>
+        <v>7.03235208693153</v>
       </c>
       <c r="J37" t="n">
-        <v>16.53283016326072</v>
+        <v>16.53283016326073</v>
       </c>
       <c r="K37" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298214</v>
       </c>
       <c r="L37" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943114</v>
       </c>
       <c r="M37" t="n">
         <v>36.65624154623951</v>
@@ -33828,7 +33828,7 @@
         <v>35.78463805299833</v>
       </c>
       <c r="O37" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344965</v>
       </c>
       <c r="P37" t="n">
         <v>28.28247042458797</v>
@@ -33837,16 +33837,16 @@
         <v>19.58131652742633</v>
       </c>
       <c r="R37" t="n">
-        <v>10.51451433553909</v>
+        <v>10.5145143355391</v>
       </c>
       <c r="S37" t="n">
         <v>4.075277796447319</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9991552239594367</v>
+        <v>0.9991552239594369</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01275517307182261</v>
+        <v>0.01275517307182262</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5213169563692985</v>
+        <v>0.5213169563692986</v>
       </c>
       <c r="H38" t="n">
-        <v>5.33893727941708</v>
+        <v>5.338937279417081</v>
       </c>
       <c r="I38" t="n">
         <v>20.0980719604274</v>
       </c>
       <c r="J38" t="n">
-        <v>44.24612502564879</v>
+        <v>44.2461250256488</v>
       </c>
       <c r="K38" t="n">
-        <v>66.31347178876121</v>
+        <v>66.31347178876122</v>
       </c>
       <c r="L38" t="n">
-        <v>82.26772559224814</v>
+        <v>82.26772559224817</v>
       </c>
       <c r="M38" t="n">
-        <v>91.53869601508066</v>
+        <v>91.53869601508067</v>
       </c>
       <c r="N38" t="n">
-        <v>93.01988781736493</v>
+        <v>93.01988781736495</v>
       </c>
       <c r="O38" t="n">
-        <v>87.83604233246771</v>
+        <v>87.83604233246773</v>
       </c>
       <c r="P38" t="n">
-        <v>74.96602997210064</v>
+        <v>74.96602997210066</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.29636647212512</v>
+        <v>56.29636647212514</v>
       </c>
       <c r="R38" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053298</v>
       </c>
       <c r="S38" t="n">
         <v>11.8795101432654</v>
       </c>
       <c r="T38" t="n">
-        <v>2.282064976506605</v>
+        <v>2.282064976506606</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04170535650954387</v>
+        <v>0.04170535650954389</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33962,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2789291620800452</v>
+        <v>0.2789291620800453</v>
       </c>
       <c r="H39" t="n">
-        <v>2.693868486404647</v>
+        <v>2.693868486404648</v>
       </c>
       <c r="I39" t="n">
-        <v>9.603482115475241</v>
+        <v>9.603482115475243</v>
       </c>
       <c r="J39" t="n">
-        <v>26.3526889489748</v>
+        <v>26.35268894897481</v>
       </c>
       <c r="K39" t="n">
-        <v>45.04094280833782</v>
+        <v>45.04094280833783</v>
       </c>
       <c r="L39" t="n">
-        <v>60.56310600338876</v>
+        <v>60.56310600338877</v>
       </c>
       <c r="M39" t="n">
-        <v>70.67428812879038</v>
+        <v>70.67428812879039</v>
       </c>
       <c r="N39" t="n">
-        <v>72.54482623765175</v>
+        <v>72.54482623765176</v>
       </c>
       <c r="O39" t="n">
-        <v>66.36434322524653</v>
+        <v>66.36434322524654</v>
       </c>
       <c r="P39" t="n">
-        <v>53.26323622210968</v>
+        <v>53.2632362221097</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.60506286481419</v>
+        <v>35.6050628648142</v>
       </c>
       <c r="R39" t="n">
         <v>17.31807551932071</v>
@@ -34004,7 +34004,7 @@
         <v>1.124280262945445</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842404</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,16 +34047,16 @@
         <v>2.079093210707085</v>
       </c>
       <c r="I40" t="n">
-        <v>7.032352086931528</v>
+        <v>7.03235208693153</v>
       </c>
       <c r="J40" t="n">
-        <v>16.53283016326072</v>
+        <v>16.53283016326073</v>
       </c>
       <c r="K40" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298214</v>
       </c>
       <c r="L40" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943114</v>
       </c>
       <c r="M40" t="n">
         <v>36.65624154623951</v>
@@ -34065,7 +34065,7 @@
         <v>35.78463805299833</v>
       </c>
       <c r="O40" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344965</v>
       </c>
       <c r="P40" t="n">
         <v>28.28247042458797</v>
@@ -34074,16 +34074,16 @@
         <v>19.58131652742633</v>
       </c>
       <c r="R40" t="n">
-        <v>10.51451433553909</v>
+        <v>10.5145143355391</v>
       </c>
       <c r="S40" t="n">
         <v>4.075277796447319</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9991552239594367</v>
+        <v>0.9991552239594369</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01275517307182261</v>
+        <v>0.01275517307182262</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5213169563692985</v>
+        <v>0.5213169563692986</v>
       </c>
       <c r="H41" t="n">
-        <v>5.33893727941708</v>
+        <v>5.338937279417081</v>
       </c>
       <c r="I41" t="n">
         <v>20.0980719604274</v>
       </c>
       <c r="J41" t="n">
-        <v>44.24612502564879</v>
+        <v>44.2461250256488</v>
       </c>
       <c r="K41" t="n">
-        <v>66.31347178876121</v>
+        <v>66.31347178876122</v>
       </c>
       <c r="L41" t="n">
-        <v>82.26772559224814</v>
+        <v>82.26772559224817</v>
       </c>
       <c r="M41" t="n">
-        <v>91.53869601508066</v>
+        <v>91.53869601508067</v>
       </c>
       <c r="N41" t="n">
-        <v>93.01988781736493</v>
+        <v>93.01988781736495</v>
       </c>
       <c r="O41" t="n">
-        <v>87.83604233246771</v>
+        <v>87.83604233246773</v>
       </c>
       <c r="P41" t="n">
-        <v>74.96602997210064</v>
+        <v>74.96602997210066</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.29636647212512</v>
+        <v>56.29636647212514</v>
       </c>
       <c r="R41" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053298</v>
       </c>
       <c r="S41" t="n">
         <v>11.8795101432654</v>
       </c>
       <c r="T41" t="n">
-        <v>2.282064976506605</v>
+        <v>2.282064976506606</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04170535650954387</v>
+        <v>0.04170535650954389</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,37 +34199,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2789291620800452</v>
+        <v>0.2789291620800453</v>
       </c>
       <c r="H42" t="n">
-        <v>2.693868486404647</v>
+        <v>2.693868486404648</v>
       </c>
       <c r="I42" t="n">
-        <v>9.603482115475241</v>
+        <v>9.603482115475243</v>
       </c>
       <c r="J42" t="n">
-        <v>26.3526889489748</v>
+        <v>26.35268894897481</v>
       </c>
       <c r="K42" t="n">
-        <v>45.04094280833782</v>
+        <v>45.04094280833783</v>
       </c>
       <c r="L42" t="n">
-        <v>60.56310600338876</v>
+        <v>60.56310600338877</v>
       </c>
       <c r="M42" t="n">
-        <v>70.67428812879038</v>
+        <v>70.67428812879039</v>
       </c>
       <c r="N42" t="n">
-        <v>72.54482623765175</v>
+        <v>72.54482623765176</v>
       </c>
       <c r="O42" t="n">
-        <v>66.36434322524653</v>
+        <v>66.36434322524654</v>
       </c>
       <c r="P42" t="n">
-        <v>53.26323622210968</v>
+        <v>53.2632362221097</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.60506286481419</v>
+        <v>35.6050628648142</v>
       </c>
       <c r="R42" t="n">
         <v>17.31807551932071</v>
@@ -34241,7 +34241,7 @@
         <v>1.124280262945445</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842404</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,16 +34284,16 @@
         <v>2.079093210707085</v>
       </c>
       <c r="I43" t="n">
-        <v>7.032352086931528</v>
+        <v>7.03235208693153</v>
       </c>
       <c r="J43" t="n">
-        <v>16.53283016326072</v>
+        <v>16.53283016326073</v>
       </c>
       <c r="K43" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298214</v>
       </c>
       <c r="L43" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943114</v>
       </c>
       <c r="M43" t="n">
         <v>36.65624154623951</v>
@@ -34302,7 +34302,7 @@
         <v>35.78463805299833</v>
       </c>
       <c r="O43" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344965</v>
       </c>
       <c r="P43" t="n">
         <v>28.28247042458797</v>
@@ -34311,16 +34311,16 @@
         <v>19.58131652742633</v>
       </c>
       <c r="R43" t="n">
-        <v>10.51451433553909</v>
+        <v>10.5145143355391</v>
       </c>
       <c r="S43" t="n">
         <v>4.075277796447319</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9991552239594367</v>
+        <v>0.9991552239594369</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01275517307182261</v>
+        <v>0.01275517307182262</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5213169563692985</v>
+        <v>0.5213169563692986</v>
       </c>
       <c r="H44" t="n">
-        <v>5.33893727941708</v>
+        <v>5.338937279417081</v>
       </c>
       <c r="I44" t="n">
         <v>20.0980719604274</v>
       </c>
       <c r="J44" t="n">
-        <v>44.24612502564879</v>
+        <v>44.2461250256488</v>
       </c>
       <c r="K44" t="n">
-        <v>66.31347178876121</v>
+        <v>66.31347178876122</v>
       </c>
       <c r="L44" t="n">
-        <v>82.26772559224814</v>
+        <v>82.26772559224817</v>
       </c>
       <c r="M44" t="n">
-        <v>91.53869601508066</v>
+        <v>91.53869601508067</v>
       </c>
       <c r="N44" t="n">
-        <v>93.01988781736493</v>
+        <v>93.01988781736495</v>
       </c>
       <c r="O44" t="n">
-        <v>87.83604233246771</v>
+        <v>87.83604233246773</v>
       </c>
       <c r="P44" t="n">
-        <v>74.96602997210064</v>
+        <v>74.96602997210066</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.29636647212512</v>
+        <v>56.29636647212514</v>
       </c>
       <c r="R44" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053298</v>
       </c>
       <c r="S44" t="n">
         <v>11.8795101432654</v>
       </c>
       <c r="T44" t="n">
-        <v>2.282064976506605</v>
+        <v>2.282064976506606</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04170535650954387</v>
+        <v>0.04170535650954389</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34436,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2789291620800452</v>
+        <v>0.2789291620800453</v>
       </c>
       <c r="H45" t="n">
-        <v>2.693868486404647</v>
+        <v>2.693868486404648</v>
       </c>
       <c r="I45" t="n">
-        <v>9.603482115475241</v>
+        <v>9.603482115475243</v>
       </c>
       <c r="J45" t="n">
-        <v>26.3526889489748</v>
+        <v>26.35268894897481</v>
       </c>
       <c r="K45" t="n">
-        <v>45.04094280833782</v>
+        <v>45.04094280833783</v>
       </c>
       <c r="L45" t="n">
-        <v>60.56310600338876</v>
+        <v>60.56310600338877</v>
       </c>
       <c r="M45" t="n">
-        <v>70.67428812879038</v>
+        <v>70.67428812879039</v>
       </c>
       <c r="N45" t="n">
-        <v>72.54482623765175</v>
+        <v>72.54482623765176</v>
       </c>
       <c r="O45" t="n">
-        <v>66.36434322524653</v>
+        <v>66.36434322524654</v>
       </c>
       <c r="P45" t="n">
-        <v>53.26323622210968</v>
+        <v>53.2632362221097</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.60506286481419</v>
+        <v>35.6050628648142</v>
       </c>
       <c r="R45" t="n">
         <v>17.31807551932071</v>
@@ -34478,7 +34478,7 @@
         <v>1.124280262945445</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842404</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,16 +34521,16 @@
         <v>2.079093210707085</v>
       </c>
       <c r="I46" t="n">
-        <v>7.032352086931528</v>
+        <v>7.03235208693153</v>
       </c>
       <c r="J46" t="n">
-        <v>16.53283016326072</v>
+        <v>16.53283016326073</v>
       </c>
       <c r="K46" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298214</v>
       </c>
       <c r="L46" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943114</v>
       </c>
       <c r="M46" t="n">
         <v>36.65624154623951</v>
@@ -34539,7 +34539,7 @@
         <v>35.78463805299833</v>
       </c>
       <c r="O46" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344965</v>
       </c>
       <c r="P46" t="n">
         <v>28.28247042458797</v>
@@ -34548,16 +34548,16 @@
         <v>19.58131652742633</v>
       </c>
       <c r="R46" t="n">
-        <v>10.51451433553909</v>
+        <v>10.5145143355391</v>
       </c>
       <c r="S46" t="n">
         <v>4.075277796447319</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9991552239594367</v>
+        <v>0.9991552239594369</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01275517307182261</v>
+        <v>0.01275517307182262</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>32.29683567103627</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>170.3690333149454</v>
       </c>
       <c r="L11" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730523</v>
       </c>
       <c r="M11" t="n">
-        <v>198.6988396730515</v>
+        <v>20.30157041172095</v>
       </c>
       <c r="N11" t="n">
-        <v>186.7035744137355</v>
+        <v>198.6988396730523</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>198.6988396730523</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.60609762271694</v>
+        <v>25.60609762271695</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>171.6647408465574</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>198.6988396730523</v>
       </c>
       <c r="M12" t="n">
-        <v>59.36392958930689</v>
+        <v>198.6988396730523</v>
       </c>
       <c r="N12" t="n">
-        <v>198.6988396730515</v>
+        <v>86.3980284158026</v>
       </c>
       <c r="O12" t="n">
-        <v>198.6988396730515</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>198.6988396730515</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>105.7005765146418</v>
@@ -35544,10 +35544,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.38450135314238</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.01584943355786</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35562,19 +35562,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>30.21319961144346</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>98.18601341265756</v>
       </c>
       <c r="K13" t="n">
-        <v>62.64799490039809</v>
+        <v>4.899026817099283</v>
       </c>
       <c r="L13" t="n">
-        <v>62.35637532974727</v>
+        <v>62.35637532974728</v>
       </c>
       <c r="M13" t="n">
-        <v>76.24011850808009</v>
+        <v>76.2401185080801</v>
       </c>
       <c r="N13" t="n">
         <v>79.91681043222692</v>
@@ -35583,10 +35583,10 @@
         <v>57.63803306748932</v>
       </c>
       <c r="P13" t="n">
-        <v>25.56102968948145</v>
+        <v>25.56102968948146</v>
       </c>
       <c r="Q13" t="n">
-        <v>112.0505957275022</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>177.532033753823</v>
+        <v>7.163000438878719</v>
       </c>
       <c r="N14" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="O14" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="P14" t="n">
-        <v>165.5317423883137</v>
+        <v>165.5317423883138</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.30566725758032</v>
+        <v>46.30566725758033</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>25.60609762271695</v>
       </c>
       <c r="K15" t="n">
         <v>171.6647408465574</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>192.0986049304438</v>
       </c>
       <c r="N15" t="n">
-        <v>112.0041260385179</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>198.6988396730515</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.7005765146418</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35781,10 +35781,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.38450135314241</v>
       </c>
       <c r="D16" t="n">
-        <v>30.01584943355789</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>32.19735980520107</v>
@@ -35796,22 +35796,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.48324315503775</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>30.21319961144349</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>44.31098545713728</v>
       </c>
       <c r="K16" t="n">
-        <v>4.899026817099276</v>
+        <v>4.899026817099283</v>
       </c>
       <c r="L16" t="n">
-        <v>62.35637532974727</v>
+        <v>62.35637532974728</v>
       </c>
       <c r="M16" t="n">
-        <v>76.24011850808009</v>
+        <v>76.2401185080801</v>
       </c>
       <c r="N16" t="n">
         <v>79.91681043222692</v>
@@ -35820,13 +35820,13 @@
         <v>57.63803306748932</v>
       </c>
       <c r="P16" t="n">
-        <v>25.56102968948145</v>
+        <v>25.56102968948146</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.52363473306318</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.85244541013985</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>32.29683567103627</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>170.3690333149454</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="N17" t="n">
-        <v>173.5650044408929</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="O17" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="P17" t="n">
-        <v>165.5317423883137</v>
+        <v>165.5317423883138</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.30566725758032</v>
+        <v>25.13886133835232</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25.60609762271695</v>
       </c>
       <c r="K18" t="n">
-        <v>171.6647408465574</v>
+        <v>165.0645061039492</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="N18" t="n">
-        <v>112.0041260385179</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="O18" t="n">
-        <v>198.6988396730515</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6988396730515</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.7005765146418</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.899026817099276</v>
+        <v>4.899026817099283</v>
       </c>
       <c r="L19" t="n">
-        <v>62.35637532974727</v>
+        <v>62.35637532974728</v>
       </c>
       <c r="M19" t="n">
-        <v>76.24011850808009</v>
+        <v>76.2401185080801</v>
       </c>
       <c r="N19" t="n">
         <v>79.91681043222692</v>
@@ -36057,7 +36057,7 @@
         <v>57.63803306748932</v>
       </c>
       <c r="P19" t="n">
-        <v>25.56102968948145</v>
+        <v>25.56102968948146</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>198.6988396730515</v>
+        <v>25.13886133835235</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="N20" t="n">
-        <v>177.532033753823</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="O20" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="P20" t="n">
-        <v>165.5317423883137</v>
+        <v>165.5317423883138</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.30566725758032</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="M21" t="n">
-        <v>84.97002721202384</v>
+        <v>190.6706037266661</v>
       </c>
       <c r="N21" t="n">
-        <v>198.6988396730515</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="P21" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.7005765146418</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>4.899026817099276</v>
+        <v>4.899026817099283</v>
       </c>
       <c r="L22" t="n">
-        <v>62.35637532974727</v>
+        <v>62.35637532974728</v>
       </c>
       <c r="M22" t="n">
-        <v>76.24011850808009</v>
+        <v>76.2401185080801</v>
       </c>
       <c r="N22" t="n">
         <v>79.91681043222692</v>
@@ -36294,7 +36294,7 @@
         <v>57.63803306748932</v>
       </c>
       <c r="P22" t="n">
-        <v>25.56102968948145</v>
+        <v>25.56102968948146</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>32.29683567103627</v>
+        <v>32.29683567103628</v>
       </c>
       <c r="K23" t="n">
         <v>170.3690333149454</v>
       </c>
       <c r="L23" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="M23" t="n">
-        <v>140.3979071561551</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>198.6988396730515</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>173.5650044408945</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>165.5317423883138</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.30566725758032</v>
+        <v>46.30566725758033</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>25.60609762271694</v>
+        <v>25.60609762271695</v>
       </c>
       <c r="K24" t="n">
         <v>171.6647408465574</v>
       </c>
       <c r="L24" t="n">
-        <v>198.6988396730515</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="M24" t="n">
-        <v>198.6988396730515</v>
+        <v>192.0986049304438</v>
       </c>
       <c r="N24" t="n">
-        <v>192.0986049304427</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>198.6988396730521</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.899026817099276</v>
+        <v>4.899026817099283</v>
       </c>
       <c r="L25" t="n">
-        <v>62.35637532974727</v>
+        <v>62.35637532974728</v>
       </c>
       <c r="M25" t="n">
-        <v>76.24011850808009</v>
+        <v>76.2401185080801</v>
       </c>
       <c r="N25" t="n">
         <v>79.91681043222692</v>
@@ -36531,7 +36531,7 @@
         <v>57.63803306748932</v>
       </c>
       <c r="P25" t="n">
-        <v>25.56102968948145</v>
+        <v>25.56102968948146</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>314.5338326111703</v>
       </c>
       <c r="Q26" t="n">
-        <v>195.3077574804369</v>
+        <v>195.3077574804368</v>
       </c>
       <c r="R26" t="n">
-        <v>31.8801485422398</v>
+        <v>31.88014854223981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>25.60609762271694</v>
+        <v>25.60609762271695</v>
       </c>
       <c r="K27" t="n">
         <v>171.6647408465574</v>
@@ -36680,7 +36680,7 @@
         <v>292.8490715269738</v>
       </c>
       <c r="M27" t="n">
-        <v>394.2453179567719</v>
+        <v>394.245317956772</v>
       </c>
       <c r="N27" t="n">
         <v>420.545488497872</v>
@@ -36747,28 +36747,28 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5839673825297531</v>
+        <v>0.5839673825297549</v>
       </c>
       <c r="J28" t="n">
         <v>72.17574026944446</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9011170399558</v>
+        <v>4.899026817099283</v>
       </c>
       <c r="L28" t="n">
-        <v>62.35637532974727</v>
+        <v>62.35637532974728</v>
       </c>
       <c r="M28" t="n">
         <v>225.2422087309366</v>
       </c>
       <c r="N28" t="n">
-        <v>79.91681043222692</v>
+        <v>228.9189006550834</v>
       </c>
       <c r="O28" t="n">
-        <v>57.63803306748932</v>
+        <v>77.2108266594427</v>
       </c>
       <c r="P28" t="n">
-        <v>45.13382328143496</v>
+        <v>25.56102968948146</v>
       </c>
       <c r="Q28" t="n">
         <v>82.42136349858845</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>181.2989258938928</v>
+        <v>181.298925893893</v>
       </c>
       <c r="K29" t="n">
-        <v>319.3711235378019</v>
+        <v>319.371123537802</v>
       </c>
       <c r="L29" t="n">
         <v>413.1646153955679</v>
       </c>
       <c r="M29" t="n">
-        <v>459.7080865034969</v>
+        <v>459.708086503497</v>
       </c>
       <c r="N29" t="n">
         <v>449.9558388556147</v>
       </c>
       <c r="O29" t="n">
-        <v>387.5401023963828</v>
+        <v>387.5401023963829</v>
       </c>
       <c r="P29" t="n">
         <v>314.5338326111703</v>
       </c>
       <c r="Q29" t="n">
-        <v>195.3077574804368</v>
+        <v>195.3077574804369</v>
       </c>
       <c r="R29" t="n">
-        <v>31.88014854223979</v>
+        <v>31.88014854223984</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>25.60609762271694</v>
+        <v>25.60609762271695</v>
       </c>
       <c r="K30" t="n">
         <v>171.6647408465574</v>
@@ -36917,7 +36917,7 @@
         <v>292.8490715269738</v>
       </c>
       <c r="M30" t="n">
-        <v>394.2453179567719</v>
+        <v>394.245317956772</v>
       </c>
       <c r="N30" t="n">
         <v>420.545488497872</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3866172046441534</v>
+        <v>0.3866172046441818</v>
       </c>
       <c r="E31" t="n">
-        <v>2.568127576287338</v>
+        <v>2.568127576287367</v>
       </c>
       <c r="F31" t="n">
-        <v>3.581042199925264</v>
+        <v>3.581042199925292</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.5839673825297833</v>
       </c>
       <c r="J31" t="n">
-        <v>72.17574026944446</v>
+        <v>72.17574026944449</v>
       </c>
       <c r="K31" t="n">
-        <v>4.899026817099276</v>
+        <v>153.9011170399558</v>
       </c>
       <c r="L31" t="n">
-        <v>62.35637532974727</v>
+        <v>62.35637532974728</v>
       </c>
       <c r="M31" t="n">
-        <v>225.2422087309366</v>
+        <v>76.2401185080801</v>
       </c>
       <c r="N31" t="n">
-        <v>79.91681043222692</v>
+        <v>99.10298681953559</v>
       </c>
       <c r="O31" t="n">
-        <v>206.6401232903458</v>
+        <v>206.6401232903459</v>
       </c>
       <c r="P31" t="n">
-        <v>45.3311734593207</v>
+        <v>25.56102968948146</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.42136349858845</v>
+        <v>82.42136349858848</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>181.2989258938928</v>
+        <v>181.2989258938927</v>
       </c>
       <c r="K32" t="n">
-        <v>319.3711235378013</v>
+        <v>319.3711235378019</v>
       </c>
       <c r="L32" t="n">
-        <v>413.1646153955679</v>
+        <v>413.1646153955678</v>
       </c>
       <c r="M32" t="n">
         <v>459.7080865034969</v>
       </c>
       <c r="N32" t="n">
-        <v>449.9558388556147</v>
+        <v>449.9558388556146</v>
       </c>
       <c r="O32" t="n">
-        <v>387.5401023963828</v>
+        <v>387.5401023963834</v>
       </c>
       <c r="P32" t="n">
-        <v>314.5338326111703</v>
+        <v>314.5338326111702</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.3077574804369</v>
+        <v>195.3077574804368</v>
       </c>
       <c r="R32" t="n">
-        <v>31.88014854223983</v>
+        <v>31.88014854223975</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>25.60609762271694</v>
+        <v>25.60609762271695</v>
       </c>
       <c r="K33" t="n">
         <v>171.6647408465574</v>
@@ -37154,7 +37154,7 @@
         <v>292.8490715269738</v>
       </c>
       <c r="M33" t="n">
-        <v>394.2453179567719</v>
+        <v>394.245317956772</v>
       </c>
       <c r="N33" t="n">
         <v>420.545488497872</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3866172046441818</v>
+        <v>0.3866172046440965</v>
       </c>
       <c r="E34" t="n">
-        <v>2.568127576287367</v>
+        <v>2.568127576287281</v>
       </c>
       <c r="F34" t="n">
-        <v>3.581042199925292</v>
+        <v>3.581042199925207</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5839673825297815</v>
+        <v>0.583967382529698</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72.1757402694444</v>
       </c>
       <c r="K34" t="n">
-        <v>96.26094347385256</v>
+        <v>4.899026817099283</v>
       </c>
       <c r="L34" t="n">
-        <v>211.3584655526038</v>
+        <v>211.3584655526037</v>
       </c>
       <c r="M34" t="n">
-        <v>225.2422087309366</v>
+        <v>76.2401185080801</v>
       </c>
       <c r="N34" t="n">
         <v>79.91681043222692</v>
       </c>
       <c r="O34" t="n">
-        <v>57.63803306748932</v>
+        <v>206.6401232903458</v>
       </c>
       <c r="P34" t="n">
-        <v>25.56102968948145</v>
+        <v>44.7472060767918</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.42136349858848</v>
+        <v>82.42136349858839</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,16 +37300,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.05475418179585</v>
+        <v>11.05475418179603</v>
       </c>
       <c r="J35" t="n">
-        <v>233.7294074628106</v>
+        <v>233.7294074628108</v>
       </c>
       <c r="K35" t="n">
-        <v>371.8016051067198</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L35" t="n">
-        <v>287.3723749866386</v>
+        <v>465.5950969644859</v>
       </c>
       <c r="M35" t="n">
         <v>310.7059962806404</v>
@@ -37321,16 +37321,16 @@
         <v>238.5380121735263</v>
       </c>
       <c r="P35" t="n">
-        <v>165.5317423883137</v>
+        <v>165.5317423883138</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.30566725758032</v>
+        <v>46.30566725758033</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>18.91783746512998</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.292012348794598</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>25.60609762271694</v>
+        <v>25.60609762271695</v>
       </c>
       <c r="K36" t="n">
         <v>171.6647408465574</v>
@@ -37391,7 +37391,7 @@
         <v>292.8490715269738</v>
       </c>
       <c r="M36" t="n">
-        <v>394.2453179567719</v>
+        <v>394.245317956772</v>
       </c>
       <c r="N36" t="n">
         <v>420.545488497872</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5.725078441759993</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.899026817099276</v>
+        <v>4.899026817099283</v>
       </c>
       <c r="L37" t="n">
-        <v>62.35637532974727</v>
+        <v>62.35637532974728</v>
       </c>
       <c r="M37" t="n">
-        <v>76.24011850808009</v>
+        <v>76.2401185080801</v>
       </c>
       <c r="N37" t="n">
-        <v>85.64188887398819</v>
+        <v>79.91681043222692</v>
       </c>
       <c r="O37" t="n">
         <v>57.63803306748932</v>
       </c>
       <c r="P37" t="n">
-        <v>25.56102968948145</v>
+        <v>25.56102968948146</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>11.05475418179597</v>
       </c>
       <c r="J38" t="n">
-        <v>32.29683567103627</v>
+        <v>233.7294074628108</v>
       </c>
       <c r="K38" t="n">
-        <v>170.3690333149454</v>
+        <v>371.8016051067199</v>
       </c>
       <c r="L38" t="n">
         <v>264.1625251727114</v>
@@ -37555,19 +37555,19 @@
         <v>300.9537486327582</v>
       </c>
       <c r="O38" t="n">
-        <v>385.6325455010695</v>
+        <v>238.5380121735263</v>
       </c>
       <c r="P38" t="n">
-        <v>165.5317423883137</v>
+        <v>165.5317423883138</v>
       </c>
       <c r="Q38" t="n">
-        <v>247.7382390493548</v>
+        <v>46.30566725758033</v>
       </c>
       <c r="R38" t="n">
-        <v>84.31063011115776</v>
+        <v>23.20984981392549</v>
       </c>
       <c r="S38" t="n">
-        <v>4.292012348794538</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>25.60609762271709</v>
+        <v>25.60609762271695</v>
       </c>
       <c r="K39" t="n">
         <v>171.6647408465574</v>
@@ -37628,7 +37628,7 @@
         <v>292.8490715269738</v>
       </c>
       <c r="M39" t="n">
-        <v>394.2453179567719</v>
+        <v>394.245317956772</v>
       </c>
       <c r="N39" t="n">
         <v>420.545488497872</v>
@@ -37686,10 +37686,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>5.725078441760438</v>
       </c>
       <c r="G40" t="n">
-        <v>5.725078441760466</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>4.899026817099276</v>
+        <v>4.899026817099283</v>
       </c>
       <c r="L40" t="n">
-        <v>62.35637532974727</v>
+        <v>62.35637532974728</v>
       </c>
       <c r="M40" t="n">
-        <v>76.24011850808009</v>
+        <v>76.2401185080801</v>
       </c>
       <c r="N40" t="n">
         <v>79.91681043222692</v>
@@ -37716,7 +37716,7 @@
         <v>57.63803306748932</v>
       </c>
       <c r="P40" t="n">
-        <v>25.56102968948145</v>
+        <v>25.56102968948146</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.05475418179602</v>
+        <v>11.05475418179603</v>
       </c>
       <c r="J41" t="n">
-        <v>32.29683567103627</v>
+        <v>32.29683567103628</v>
       </c>
       <c r="K41" t="n">
-        <v>170.3690333149454</v>
+        <v>371.8016051067199</v>
       </c>
       <c r="L41" t="n">
-        <v>406.0750085730746</v>
+        <v>264.1625251727114</v>
       </c>
       <c r="M41" t="n">
-        <v>310.7059962806404</v>
+        <v>496.513616169917</v>
       </c>
       <c r="N41" t="n">
-        <v>496.513616169917</v>
+        <v>300.9537486327582</v>
       </c>
       <c r="O41" t="n">
         <v>238.5380121735263</v>
       </c>
       <c r="P41" t="n">
-        <v>165.5317423883137</v>
+        <v>165.5317423883138</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.30566725758032</v>
+        <v>46.30566725758033</v>
       </c>
       <c r="R41" t="n">
-        <v>84.31063011115782</v>
+        <v>34.54278936762853</v>
       </c>
       <c r="S41" t="n">
-        <v>4.292012348794595</v>
+        <v>4.292012348794598</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.60609762271694</v>
+        <v>25.6060976227172</v>
       </c>
       <c r="K42" t="n">
         <v>171.6647408465574</v>
@@ -37865,7 +37865,7 @@
         <v>292.8490715269738</v>
       </c>
       <c r="M42" t="n">
-        <v>394.2453179567719</v>
+        <v>394.245317956772</v>
       </c>
       <c r="N42" t="n">
         <v>420.545488497872</v>
@@ -37911,13 +37911,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>5.725078441759979</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.725078441760007</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.899026817099276</v>
+        <v>4.899026817099283</v>
       </c>
       <c r="L43" t="n">
-        <v>62.35637532974727</v>
+        <v>62.35637532974728</v>
       </c>
       <c r="M43" t="n">
-        <v>76.24011850808009</v>
+        <v>76.2401185080801</v>
       </c>
       <c r="N43" t="n">
         <v>79.91681043222692</v>
@@ -37953,7 +37953,7 @@
         <v>57.63803306748932</v>
       </c>
       <c r="P43" t="n">
-        <v>25.56102968948145</v>
+        <v>25.56102968948146</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>233.7294074628107</v>
+        <v>32.29683567103628</v>
       </c>
       <c r="K44" t="n">
         <v>170.3690333149454</v>
@@ -38032,16 +38032,16 @@
         <v>238.5380121735263</v>
       </c>
       <c r="P44" t="n">
-        <v>366.9643141800882</v>
+        <v>366.9643141800883</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.30566725758032</v>
+        <v>247.7382390493548</v>
       </c>
       <c r="R44" t="n">
-        <v>29.97259164692721</v>
+        <v>29.97259164692699</v>
       </c>
       <c r="S44" t="n">
-        <v>4.292012348794538</v>
+        <v>4.292012348794541</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.60609762271732</v>
+        <v>25.6060976227172</v>
       </c>
       <c r="K45" t="n">
         <v>171.6647408465574</v>
@@ -38102,7 +38102,7 @@
         <v>292.8490715269738</v>
       </c>
       <c r="M45" t="n">
-        <v>394.2453179567719</v>
+        <v>394.245317956772</v>
       </c>
       <c r="N45" t="n">
         <v>420.545488497872</v>
@@ -38163,25 +38163,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>5.725078441760466</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5.725078441760438</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.899026817099276</v>
+        <v>4.899026817099283</v>
       </c>
       <c r="L46" t="n">
-        <v>62.35637532974727</v>
+        <v>62.35637532974728</v>
       </c>
       <c r="M46" t="n">
-        <v>76.24011850808009</v>
+        <v>76.2401185080801</v>
       </c>
       <c r="N46" t="n">
         <v>79.91681043222692</v>
@@ -38190,7 +38190,7 @@
         <v>57.63803306748932</v>
       </c>
       <c r="P46" t="n">
-        <v>25.56102968948145</v>
+        <v>25.56102968948146</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
